--- a/dedup2/dedup2_SMA.xlsx
+++ b/dedup2/dedup2_SMA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K157"/>
+  <dimension ref="A1:J157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,35 +456,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>reviews_count</t>
+          <t>reviews_average</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>reviews_average</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>is_permanently_closed</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>is_permanently_closed</t>
+          <t>gmaps_link</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>gmaps_link</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>latest_review_date</t>
         </is>
@@ -511,25 +506,24 @@
           <t>(0274) 367547</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F2" t="n">
-        <v>4.7</v>
+        <v>-7.897433</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.897433</v>
-      </c>
-      <c r="H2" t="n">
         <v>110.322589</v>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Negeri+1+Bantul/@-7.8974332,110.2504911,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7aff5c5bf30ef9:0xb95096e97f5f744a!8m2!3d-7.8974332!4d110.3225889!15sCgpTTUEgQmFudHVskgESc2VuaW9yX2hpZ2hfc2Nob29s4AEA!16s%2Fg%2F11b7g11znd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J2" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Negeri+1+Bantul/@-7.8974332,110.2504911,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7aff5c5bf30ef9:0xb95096e97f5f744a!8m2!3d-7.8974332!4d110.3225889!15sCgpTTUEgQmFudHVskgESc2VuaW9yX2hpZ2hfc2Nob29s4AEA!16s%2Fg%2F11b7g11znd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -556,25 +550,24 @@
           <t>(0274) 367309</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F3" t="n">
-        <v>4.6</v>
+        <v>-7.894192</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.894192</v>
-      </c>
-      <c r="H3" t="n">
         <v>110.33833</v>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Negeri+2+Bantul/@-7.8974332,110.2504911,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a55f140e47481:0x34b7ae77b82b3f2d!8m2!3d-7.8941924!4d110.3383303!15sCgpTTUEgQmFudHVskgESc2VuaW9yX2hpZ2hfc2Nob29s4AEA!16s%2Fg%2F121jcf2k?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J3" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Negeri+2+Bantul/@-7.8974332,110.2504911,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a55f140e47481:0x34b7ae77b82b3f2d!8m2!3d-7.8941924!4d110.3383303!15sCgpTTUEgQmFudHVskgESc2VuaW9yX2hpZ2hfc2Nob29s4AEA!16s%2Fg%2F121jcf2k?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
         <is>
           <t>3 minggu lalu</t>
         </is>
@@ -601,25 +594,24 @@
           <t>(0274) 765032</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F4" t="n">
-        <v>4.4</v>
+        <v>-7.881422</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.881422</v>
-      </c>
-      <c r="H4" t="n">
         <v>110.342848</v>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Negeri+3+Bantul/@-7.8974332,110.2504911,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7aff5604a1fd19:0xd598e520bea9e3fb!8m2!3d-7.8814222!4d110.342848!15sCgpTTUEgQmFudHVskgELaGlnaF9zY2hvb2zgAQA!16s%2Fg%2F1hm2xg_kw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J4" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Negeri+3+Bantul/@-7.8974332,110.2504911,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7aff5604a1fd19:0xd598e520bea9e3fb!8m2!3d-7.8814222!4d110.342848!15sCgpTTUEgQmFudHVskgELaGlnaF9zY2hvb2zgAQA!16s%2Fg%2F1hm2xg_kw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -642,25 +634,24 @@
           <t>(0274) 373824</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F5" t="n">
-        <v>4.6</v>
+        <v>-7.809244</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.809244</v>
-      </c>
-      <c r="H5" t="n">
         <v>110.417225</v>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Negeri+1+Banguntapan/@-7.8092443,110.3451271,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a5748d249b8b9:0x3d1b0fa57eed13d9!8m2!3d-7.8092443!4d110.4172249!15sCgpTTUEgQmFudHVskgESc2VuaW9yX2hpZ2hfc2Nob29s4AEA!16s%2Fg%2F120x5zsz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J5" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Negeri+1+Banguntapan/@-7.8092443,110.3451271,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a5748d249b8b9:0x3d1b0fa57eed13d9!8m2!3d-7.8092443!4d110.4172249!15sCgpTTUEgQmFudHVskgESc2VuaW9yX2hpZ2hfc2Nob29s4AEA!16s%2Fg%2F120x5zsz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -683,25 +674,24 @@
           <t>(0274) 374459</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F6" t="n">
-        <v>4.6</v>
+        <v>-7.842893</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.842893</v>
-      </c>
-      <c r="H6" t="n">
         <v>110.362544</v>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Negeri+1+Sewon/@-7.8428926,110.2904465,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a564e827fa9b1:0x412e7d8cbcbdbbfc!8m2!3d-7.8428926!4d110.3625443!15sCgpTTUEgQmFudHVskgESc2VuaW9yX2hpZ2hfc2Nob29s4AEA!16s%2Fg%2F11hbrcpxh5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J6" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Negeri+1+Sewon/@-7.8428926,110.2904465,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a564e827fa9b1:0x412e7d8cbcbdbbfc!8m2!3d-7.8428926!4d110.3625443!15sCgpTTUEgQmFudHVskgESc2VuaW9yX2hpZ2hfc2Nob29s4AEA!16s%2Fg%2F11hbrcpxh5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
         <is>
           <t>4 minggu lalu</t>
         </is>
@@ -728,25 +718,24 @@
           <t>(0274) 367577</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>5</v>
+      </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>-7.884996</v>
       </c>
       <c r="G7" t="n">
-        <v>-7.884996</v>
-      </c>
-      <c r="H7" t="n">
         <v>110.318169</v>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+17+BANTUL/@-7.8849959,110.246071,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7aff77446728d7:0x7e9fb0e402474c97!8m2!3d-7.8849959!4d110.3181688!15sCgpTTUEgQmFudHVskgELaGlnaF9zY2hvb2zgAQA!16s%2Fg%2F11np4dwn83?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J7" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+17+BANTUL/@-7.8849959,110.246071,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7aff77446728d7:0x7e9fb0e402474c97!8m2!3d-7.8849959!4d110.3181688!15sCgpTTUEgQmFudHVskgELaGlnaF9zY2hvb2zgAQA!16s%2Fg%2F11np4dwn83?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
         <is>
           <t>7 bulan lalu</t>
         </is>
@@ -773,25 +762,24 @@
           <t>(0274) 2810161</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F8" t="n">
-        <v>4.6</v>
+        <v>-7.890003</v>
       </c>
       <c r="G8" t="n">
-        <v>-7.890003</v>
-      </c>
-      <c r="H8" t="n">
         <v>110.374819</v>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Negeri+1+Jetis/@-7.8900025,110.3027208,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a55964bbd3bf1:0x146645ca92f53378!8m2!3d-7.8900025!4d110.3748186!15sCgpTTUEgQmFudHVskgESc2VuaW9yX2hpZ2hfc2Nob29s4AEA!16s%2Fg%2F120t49r3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J8" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Negeri+1+Jetis/@-7.8900025,110.3027208,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a55964bbd3bf1:0x146645ca92f53378!8m2!3d-7.8900025!4d110.3748186!15sCgpTTUEgQmFudHVskgESc2VuaW9yX2hpZ2hfc2Nob29s4AEA!16s%2Fg%2F120t49r3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -818,25 +806,24 @@
           <t>(0274) 2811907</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F9" t="n">
-        <v>4.6</v>
+        <v>-7.957253</v>
       </c>
       <c r="G9" t="n">
-        <v>-7.957253</v>
-      </c>
-      <c r="H9" t="n">
         <v>110.267179</v>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Negeri+1+Sanden/@-7.9572527,110.1950809,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7afe24e9223b7b:0xaa41b8d68d4517e8!8m2!3d-7.9572527!4d110.2671787!15sCgpTTUEgQmFudHVskgESc2VuaW9yX2hpZ2hfc2Nob29s4AEA!16s%2Fg%2F11c5stx3fg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J9" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Negeri+1+Sanden/@-7.9572527,110.1950809,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7afe24e9223b7b:0xaa41b8d68d4517e8!8m2!3d-7.9572527!4d110.2671787!15sCgpTTUEgQmFudHVskgESc2VuaW9yX2hpZ2hfc2Nob29s4AEA!16s%2Fg%2F11c5stx3fg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -863,25 +850,24 @@
           <t>(0274) 6461049</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F10" t="n">
-        <v>4.8</v>
+        <v>-7.881778</v>
       </c>
       <c r="G10" t="n">
-        <v>-7.881778</v>
-      </c>
-      <c r="H10" t="n">
         <v>110.30482</v>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Negeri+1+Pajangan/@-7.881778,110.2327222,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7af8b85c5916f7:0xb4361831a9b82b20!8m2!3d-7.881778!4d110.30482!15sCgpTTUEgQmFudHVskgELaGlnaF9zY2hvb2zgAQA!16s%2Fg%2F1hm54hpkt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J10" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Negeri+1+Pajangan/@-7.881778,110.2327222,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7af8b85c5916f7:0xb4361831a9b82b20!8m2!3d-7.881778!4d110.30482!15sCgpTTUEgQmFudHVskgELaGlnaF9zY2hvb2zgAQA!16s%2Fg%2F1hm54hpkt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
         <is>
           <t>3 minggu lalu</t>
         </is>
@@ -908,25 +894,24 @@
           <t>0821-6970-3899</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F11" t="n">
-        <v>4.6</v>
+        <v>-7.891241</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.891241</v>
-      </c>
-      <c r="H11" t="n">
         <v>110.327322</v>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+MUHAMMADIYAH+1+BANTUL/@-7.881778,110.2327222,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7aff4153071459:0x7ffe35f67ca92dcb!8m2!3d-7.8912412!4d110.3273216!15sCgpTTUEgQmFudHVskgESc2VuaW9yX2hpZ2hfc2Nob29s4AEA!16s%2Fg%2F11gyc6_drq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J11" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+MUHAMMADIYAH+1+BANTUL/@-7.881778,110.2327222,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7aff4153071459:0x7ffe35f67ca92dcb!8m2!3d-7.8912412!4d110.3273216!15sCgpTTUEgQmFudHVskgESc2VuaW9yX2hpZ2hfc2Nob29s4AEA!16s%2Fg%2F11gyc6_drq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -949,25 +934,24 @@
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F12" t="n">
-        <v>4.5</v>
+        <v>-7.957899</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.957899</v>
-      </c>
-      <c r="H12" t="n">
         <v>110.3456</v>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Negeri+1+Pundong/@-7.9578987,110.2735023,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a554dd266983f:0x99571c5e3036781d!8m2!3d-7.9578987!4d110.3456001!15sCgpTTUEgQmFudHVskgELaGlnaF9zY2hvb2zgAQA!16s%2Fg%2F1hm53rl1c?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J12" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Negeri+1+Pundong/@-7.9578987,110.2735023,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a554dd266983f:0x99571c5e3036781d!8m2!3d-7.9578987!4d110.3456001!15sCgpTTUEgQmFudHVskgELaGlnaF9zY2hvb2zgAQA!16s%2Fg%2F1hm53rl1c?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -994,25 +978,24 @@
           <t>(0274) 798487</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F13" t="n">
-        <v>4.4</v>
+        <v>-7.804521</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.804521</v>
-      </c>
-      <c r="H13" t="n">
         <v>110.273201</v>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Negeri+1+Sedayu/@-7.804521,110.2011028,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7af7b1f4b81d97:0x3a7dbfc86d9b0379!8m2!3d-7.804521!4d110.2732006!15sCgpTTUEgQmFudHVskgESc2VuaW9yX2hpZ2hfc2Nob29s4AEA!16s%2Fg%2F1hd_9r1dg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J13" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Negeri+1+Sedayu/@-7.804521,110.2011028,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7af7b1f4b81d97:0x3a7dbfc86d9b0379!8m2!3d-7.804521!4d110.2732006!15sCgpTTUEgQmFudHVskgESc2VuaW9yX2hpZ2hfc2Nob29s4AEA!16s%2Fg%2F1hd_9r1dg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -1039,25 +1022,24 @@
           <t>(0274) 6460912</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F14" t="n">
-        <v>4.3</v>
+        <v>-7.910365</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.910365</v>
-      </c>
-      <c r="H14" t="n">
         <v>110.392912</v>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Negeri+1+Imogiri/@-7.9103655,110.3208137,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a5787bd5b6bc5:0xa24f9126d22b27ea!8m2!3d-7.9103655!4d110.3929115!15sCgpTTUEgQmFudHVskgELaGlnaF9zY2hvb2zgAQA!16s%2Fg%2F1hm2szpvp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J14" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Negeri+1+Imogiri/@-7.9103655,110.3208137,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a5787bd5b6bc5:0xa24f9126d22b27ea!8m2!3d-7.9103655!4d110.3929115!15sCgpTTUEgQmFudHVskgELaGlnaF9zY2hvb2zgAQA!16s%2Fg%2F1hm2szpvp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
         <is>
           <t>4 minggu lalu</t>
         </is>
@@ -1084,25 +1066,24 @@
           <t>(0274) 367139</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F15" t="n">
-        <v>4.7</v>
+        <v>-7.927032</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.927032</v>
-      </c>
-      <c r="H15" t="n">
         <v>110.319726</v>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Katolik+Stella+Duce,+Bantul/@-7.9270317,110.2476278,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7aff849f0ef8b1:0x9b8e5851d1f48373!8m2!3d-7.9270317!4d110.3197256!15sCgpTTUEgQmFudHVskgESc2VuaW9yX2hpZ2hfc2Nob29s4AEA!16s%2Fg%2F1hm3pc632?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J15" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Katolik+Stella+Duce,+Bantul/@-7.9270317,110.2476278,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7aff849f0ef8b1:0x9b8e5851d1f48373!8m2!3d-7.9270317!4d110.3197256!15sCgpTTUEgQmFudHVskgESc2VuaW9yX2hpZ2hfc2Nob29s4AEA!16s%2Fg%2F1hm3pc632?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -1129,25 +1110,24 @@
           <t>0817-0000-778</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F16" t="n">
-        <v>4.8</v>
+        <v>-7.808025</v>
       </c>
       <c r="G16" t="n">
-        <v>-7.808025</v>
-      </c>
-      <c r="H16" t="n">
         <v>110.272095</v>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+-+SMP+-+SMA+Kesatuan+Bangsa+Bilingual+Boarding+School/@-7.808025,110.1999971,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7af9d07dbd6775:0x32b75f3aa24b7570!8m2!3d-7.808025!4d110.2720949!15sCgpTTUEgQmFudHVskgEGc2Nob29s4AEA!16s%2Fg%2F1pp2t_ltn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J16" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+-+SMP+-+SMA+Kesatuan+Bangsa+Bilingual+Boarding+School/@-7.808025,110.1999971,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7af9d07dbd6775:0x32b75f3aa24b7570!8m2!3d-7.808025!4d110.2720949!15sCgpTTUEgQmFudHVskgEGc2Nob29s4AEA!16s%2Fg%2F1pp2t_ltn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -1170,25 +1150,24 @@
           <t>(0274) 7480304</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F17" t="n">
-        <v>4.5</v>
+        <v>-7.937803</v>
       </c>
       <c r="G17" t="n">
-        <v>-7.937803</v>
-      </c>
-      <c r="H17" t="n">
         <v>110.466838</v>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Negeri+1+Dlingo+Bantul/@-7.9378035,110.3947399,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a532235b46e75:0xfca70e906af2270c!8m2!3d-7.9378035!4d110.4668377!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySARJzZW5pb3JfaGlnaF9zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTmFNMjlmZVdoQlJSQULgAQD6AQQIABA5!16s%2Fg%2F1pzw57zq_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J17" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Negeri+1+Dlingo+Bantul/@-7.9378035,110.3947399,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a532235b46e75:0xfca70e906af2270c!8m2!3d-7.9378035!4d110.4668377!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySARJzZW5pb3JfaGlnaF9zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTmFNMjlmZVdoQlJSQULgAQD6AQQIABA5!16s%2Fg%2F1pzw57zq_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
         <is>
           <t>3 minggu lalu</t>
         </is>
@@ -1211,25 +1190,24 @@
           <t>(0274) 4546765</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F18" t="n">
-        <v>4.7</v>
+        <v>-7.803653</v>
       </c>
       <c r="G18" t="n">
-        <v>-7.803653</v>
-      </c>
-      <c r="H18" t="n">
         <v>110.26014</v>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Pangudi+Luhur+Sedayu/@-7.8036535,110.1880422,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7af9dfd21af655:0x11c4dd74d90ebc35!8m2!3d-7.8036535!4d110.26014!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySARJzZW5pb3JfaGlnaF9zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUm9jVnBEZEVSUkVBReABAPoBBQiBARA3!16s%2Fg%2F11bbqx77fj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J18" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Pangudi+Luhur+Sedayu/@-7.8036535,110.1880422,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7af9dfd21af655:0x11c4dd74d90ebc35!8m2!3d-7.8036535!4d110.26014!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySARJzZW5pb3JfaGlnaF9zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUm9jVnBEZEVSUkVBReABAPoBBQiBARA3!16s%2Fg%2F11bbqx77fj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
         <is>
           <t>3 minggu lalu</t>
         </is>
@@ -1256,25 +1234,24 @@
           <t>(0274) 4396249</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F19" t="n">
-        <v>4.6</v>
+        <v>-7.855837</v>
       </c>
       <c r="G19" t="n">
-        <v>-7.855837</v>
-      </c>
-      <c r="H19" t="n">
         <v>110.370785</v>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Muhammadiyah+Sewon/@-7.8558374,110.2986867,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a565db99dcf11:0x9166dc6b51bf1e4f!8m2!3d-7.8558374!4d110.3707845!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySAQZzY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUnVhVW95U25wblJSQULgAQD6AQQIABAT!16s%2Fg%2F1hm2sttkx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J19" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Muhammadiyah+Sewon/@-7.8558374,110.2986867,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a565db99dcf11:0x9166dc6b51bf1e4f!8m2!3d-7.8558374!4d110.3707845!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySAQZzY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUnVhVW95U25wblJSQULgAQD6AQQIABAT!16s%2Fg%2F1hm2sttkx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -1297,25 +1274,24 @@
           <t>(0274) 378100</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F20" t="n">
-        <v>4.5</v>
+        <v>-7.825772</v>
       </c>
       <c r="G20" t="n">
-        <v>-7.825772</v>
-      </c>
-      <c r="H20" t="n">
         <v>110.360957</v>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Ali+Maksum/@-7.8558374,110.2986867,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a57ba224830d7:0x3d2960c73bd93708!8m2!3d-7.8257717!4d110.3609567!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySARJzZW5pb3JfaGlnaF9zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTnljbVpRWkdGUkVBReABAPoBBAgAECs!16s%2Fg%2F11b7p_ctml?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J20" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Ali+Maksum/@-7.8558374,110.2986867,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a57ba224830d7:0x3d2960c73bd93708!8m2!3d-7.8257717!4d110.3609567!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySARJzZW5pb3JfaGlnaF9zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTnljbVpRWkdGUkVBReABAPoBBAgAECs!16s%2Fg%2F11b7p_ctml?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -1342,25 +1318,24 @@
           <t>(0274) 6464750</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F21" t="n">
-        <v>4.1</v>
+        <v>-7.942792</v>
       </c>
       <c r="G21" t="n">
-        <v>-7.942792</v>
-      </c>
-      <c r="H21" t="n">
         <v>110.244297</v>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Negeri+1+Srandakan/@-7.942792,110.1721992,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7afe7067984a57:0x40db223e71430fde!8m2!3d-7.942792!4d110.244297!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySAQtoaWdoX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSNWNYTjFNMmgzUlJBQuABAPoBBAgAEC4!16s%2Fg%2F1hdz1qvwv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J21" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Negeri+1+Srandakan/@-7.942792,110.1721992,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7afe7067984a57:0x40db223e71430fde!8m2!3d-7.942792!4d110.244297!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySAQtoaWdoX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSNWNYTjFNMmgzUlJBQuABAPoBBAgAEC4!16s%2Fg%2F1hdz1qvwv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -1379,25 +1354,24 @@
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>5</v>
+      </c>
       <c r="F22" t="n">
-        <v>5</v>
+        <v>-7.891843</v>
       </c>
       <c r="G22" t="n">
-        <v>-7.891843</v>
-      </c>
-      <c r="H22" t="n">
         <v>110.352548</v>
       </c>
-      <c r="I22" t="b">
-        <v>0</v>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Sma+Patria+Bantul/@-7.8918432,110.2804501,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a55e84d715555:0xd3528a2c59ef975!8m2!3d-7.8918432!4d110.3525479!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWyaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUkVOWE51ZG1sUlJSQULgAQD6AQQIABA3!16s%2Fg%2F11rgh774wb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J22" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Sma+Patria+Bantul/@-7.8918432,110.2804501,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a55e84d715555:0xd3528a2c59ef975!8m2!3d-7.8918432!4d110.3525479!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWyaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUkVOWE51ZG1sUlJSQULgAQD6AQQIABA3!16s%2Fg%2F11rgh774wb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
         <is>
           <t>9 bulan lalu</t>
         </is>
@@ -1424,25 +1398,24 @@
           <t>(0274) 380053</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F23" t="n">
-        <v>4.8</v>
+        <v>-7.841823</v>
       </c>
       <c r="G23" t="n">
-        <v>-7.841823</v>
-      </c>
-      <c r="H23" t="n">
         <v>110.343682</v>
       </c>
-      <c r="I23" t="b">
-        <v>0</v>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Muhammadiyah+Kasihan/@-7.8918432,110.2804501,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a56326e5d0357:0xd8eec3961b96bc70!8m2!3d-7.8418233!4d110.343682!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySARJzZW5pb3JfaGlnaF9zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTm9OWEUzVFMxUlJSQULgAQD6AQQIABAX!16s%2Fg%2F1hm2yksw3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J23" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Muhammadiyah+Kasihan/@-7.8918432,110.2804501,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a56326e5d0357:0xd8eec3961b96bc70!8m2!3d-7.8418233!4d110.343682!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySARJzZW5pb3JfaGlnaF9zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTm9OWEUzVFMxUlJSQULgAQD6AQQIABAX!16s%2Fg%2F1hm2yksw3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -1469,25 +1442,24 @@
           <t>(0274) 489511</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F24" t="n">
-        <v>4.8</v>
+        <v>-7.785521</v>
       </c>
       <c r="G24" t="n">
-        <v>-7.785521</v>
-      </c>
-      <c r="H24" t="n">
         <v>110.406373</v>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Bopkri+Banguntapan/@-7.7855208,110.3342748,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a5923dc88b47b:0x2fd139efca998b18!8m2!3d-7.7855208!4d110.4063726!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySAQtoaWdoX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOQ2JWQlBlbk5CUlJBQuABAPoBBAgAECk!16s%2Fg%2F11n6tnvd1t?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J24" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Bopkri+Banguntapan/@-7.7855208,110.3342748,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a5923dc88b47b:0x2fd139efca998b18!8m2!3d-7.7855208!4d110.4063726!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySAQtoaWdoX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOQ2JWQlBlbk5CUlJBQuABAPoBBAgAECk!16s%2Fg%2F11n6tnvd1t?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
         <is>
           <t>7 bulan lalu</t>
         </is>
@@ -1514,25 +1486,24 @@
           <t>(0274) 4415024</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr"/>
+      <c r="E25" t="n">
+        <v>4</v>
+      </c>
       <c r="F25" t="n">
-        <v>4</v>
+        <v>-7.867875</v>
       </c>
       <c r="G25" t="n">
-        <v>-7.867875</v>
-      </c>
-      <c r="H25" t="n">
         <v>110.397221</v>
       </c>
-      <c r="I25" t="b">
-        <v>0</v>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Muhammadiyah+Pleret/@-7.8678746,110.3251228,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a56a48e062da5:0xd79555c5b6191d9f!8m2!3d-7.8678746!4d110.3972206!15sCgpTTUEgQmFudHVskgESc2VuaW9yX2hpZ2hfc2Nob29s4AEA!16s%2Fg%2F1hf89g6hm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J25" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Muhammadiyah+Pleret/@-7.8678746,110.3251228,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a56a48e062da5:0xd79555c5b6191d9f!8m2!3d-7.8678746!4d110.3972206!15sCgpTTUEgQmFudHVskgESc2VuaW9yX2hpZ2hfc2Nob29s4AEA!16s%2Fg%2F1hf89g6hm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -1555,25 +1526,24 @@
           <t>(0274) 376946</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>3.9</v>
+      </c>
       <c r="F26" t="n">
-        <v>3.9</v>
+        <v>-7.809099</v>
       </c>
       <c r="G26" t="n">
-        <v>-7.809099</v>
-      </c>
-      <c r="H26" t="n">
         <v>110.340368</v>
       </c>
-      <c r="I26" t="b">
-        <v>0</v>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+PGRI+1+Kasihan/@-7.8090995,110.2682702,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a57e519429039:0xaa139a399d737d1!8m2!3d-7.8090995!4d110.340368!15sCgpTTUEgQmFudHVskgEGc2Nob29s4AEA!16s%2Fg%2F1hm4whltb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J26" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+PGRI+1+Kasihan/@-7.8090995,110.2682702,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a57e519429039:0xaa139a399d737d1!8m2!3d-7.8090995!4d110.340368!15sCgpTTUEgQmFudHVskgEGc2Nob29s4AEA!16s%2Fg%2F1hm4whltb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
         <is>
           <t>4 tahun lalu</t>
         </is>
@@ -1596,25 +1566,24 @@
           <t>(0274) 373454</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr"/>
+      <c r="E27" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F27" t="n">
-        <v>4.4</v>
+        <v>-7.815591</v>
       </c>
       <c r="G27" t="n">
-        <v>-7.815591</v>
-      </c>
-      <c r="H27" t="n">
         <v>110.354471</v>
       </c>
-      <c r="I27" t="b">
-        <v>0</v>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+SULTAN+AGUNG+YOGYAKARTA+%EA%A6%B1%EA%A7%80%EA%A6%A9%EA%A6%B1%EA%A6%B8%EA%A6%AD%EA%A7%80%EA%A6%A0%EA%A6%A4%EA%A7%80%EA%A6%84%EA%A6%92%EA%A6%B8%EA%A6%81%EA%A6%AA%EA%A6%BA%EA%A6%B4%EA%A6%92%EA%A6%BE%EA%A6%8F%EA%A6%82%EA%A6%A0/@-7.8090995,110.2682702,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a57bee949c919:0xa7cc1ff216ee394d!8m2!3d-7.815591!4d110.3544707!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySARJzZW5pb3JfaGlnaF9zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUjVObDlNZGtOQkVBReABAPoBBAgAECU!16s%2Fg%2F1hm202t20?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J27" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+SULTAN+AGUNG+YOGYAKARTA+%EA%A6%B1%EA%A7%80%EA%A6%A9%EA%A6%B1%EA%A6%B8%EA%A6%AD%EA%A7%80%EA%A6%A0%EA%A6%A4%EA%A7%80%EA%A6%84%EA%A6%92%EA%A6%B8%EA%A6%81%EA%A6%AA%EA%A6%BA%EA%A6%B4%EA%A6%92%EA%A6%BE%EA%A6%8F%EA%A6%82%EA%A6%A0/@-7.8090995,110.2682702,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a57bee949c919:0xa7cc1ff216ee394d!8m2!3d-7.815591!4d110.3544707!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySARJzZW5pb3JfaGlnaF9zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUjVObDlNZGtOQkVBReABAPoBBAgAECU!16s%2Fg%2F1hm202t20?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -1637,25 +1606,24 @@
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
+      <c r="E28" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F28" t="n">
-        <v>4.3</v>
+        <v>-7.969612</v>
       </c>
       <c r="G28" t="n">
-        <v>-7.969612</v>
-      </c>
-      <c r="H28" t="n">
         <v>110.298547</v>
       </c>
-      <c r="I28" t="b">
-        <v>0</v>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Negeri+1+Kretek/@-7.9696125,110.2264491,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7b006f1aa5abd9:0xbcc9b38208e485f8!8m2!3d-7.9696125!4d110.2985469!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySAQtoaWdoX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOd2JIVlhRM1ZSUlJBQuABAPoBBAgAEBw!16s%2Fg%2F1hdzw75wn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J28" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Negeri+1+Kretek/@-7.9696125,110.2264491,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7b006f1aa5abd9:0xbcc9b38208e485f8!8m2!3d-7.9696125!4d110.2985469!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySAQtoaWdoX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOd2JIVlhRM1ZSUlJBQuABAPoBBAgAEBw!16s%2Fg%2F1hdzw75wn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -1682,25 +1650,24 @@
           <t>(0274) 367156</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr"/>
+      <c r="E29" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F29" t="n">
-        <v>4.7</v>
+        <v>-7.889913</v>
       </c>
       <c r="G29" t="n">
-        <v>-7.889913</v>
-      </c>
-      <c r="H29" t="n">
         <v>110.355629</v>
       </c>
-      <c r="I29" t="b">
-        <v>0</v>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMK+Negeri+1+Bantul/@-7.8899133,110.2835315,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7b00889ad8f84d:0x2e0009ca7815eaf0!8m2!3d-7.8899133!4d110.3556293!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySARp2b2NhdGlvbmFsX3RyYWluaW5nX3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOaWMyOHlTa2xCRUFF4AEA-gEECFIQPQ!16s%2Fg%2F11bwg7rnsk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J29" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMK+Negeri+1+Bantul/@-7.8899133,110.2835315,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7b00889ad8f84d:0x2e0009ca7815eaf0!8m2!3d-7.8899133!4d110.3556293!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySARp2b2NhdGlvbmFsX3RyYWluaW5nX3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOaWMyOHlTa2xCRUFF4AEA-gEECFIQPQ!16s%2Fg%2F11bwg7rnsk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -1727,25 +1694,24 @@
           <t>(0274) 2812446</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr"/>
+      <c r="E30" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F30" t="n">
-        <v>4.3</v>
+        <v>-7.913725</v>
       </c>
       <c r="G30" t="n">
-        <v>-7.913725</v>
-      </c>
-      <c r="H30" t="n">
         <v>110.384996</v>
       </c>
-      <c r="I30" t="b">
-        <v>0</v>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Muhammadiyah+Imogiri/@-7.8899133,110.2835315,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a5456ab668bcd:0x57b47cc58d094ade!8m2!3d-7.913725!4d110.3849964!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySARJzZW5pb3JfaGlnaF9zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUnFkVGh1WmtkM0VBReABAPoBBAgAECg!16s%2Fg%2F1hm2r8z_d?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J30" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Muhammadiyah+Imogiri/@-7.8899133,110.2835315,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a5456ab668bcd:0x57b47cc58d094ade!8m2!3d-7.913725!4d110.3849964!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySARJzZW5pb3JfaGlnaF9zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUnFkVGh1WmtkM0VBReABAPoBBAgAECg!16s%2Fg%2F1hm2r8z_d?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -1772,25 +1738,24 @@
           <t>0822-9892-5505</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr"/>
+      <c r="E31" t="n">
+        <v>5</v>
+      </c>
       <c r="F31" t="n">
-        <v>5</v>
+        <v>-7.943442</v>
       </c>
       <c r="G31" t="n">
-        <v>-7.943442</v>
-      </c>
-      <c r="H31" t="n">
         <v>110.290083</v>
       </c>
-      <c r="I31" t="b">
-        <v>0</v>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+IT+AR+RAIHAN/@-7.943442,110.2179855,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7aff00130b7a83:0x12ba5491117c8b3c!8m2!3d-7.943442!4d110.2900833!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySAQtoaWdoX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSSU5EazJOblpuUlJBQuABAPoBBAgHEEk!16s%2Fg%2F11frnc7n7z?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J31" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+IT+AR+RAIHAN/@-7.943442,110.2179855,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7aff00130b7a83:0x12ba5491117c8b3c!8m2!3d-7.943442!4d110.2900833!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySAQtoaWdoX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSSU5EazJOblpuUlJBQuABAPoBBAgHEEk!16s%2Fg%2F11frnc7n7z?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
         <is>
           <t>3 minggu lalu</t>
         </is>
@@ -1817,25 +1782,24 @@
           <t>(0274) 367607</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr"/>
+      <c r="E32" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F32" t="n">
-        <v>4.9</v>
+        <v>-7.890892</v>
       </c>
       <c r="G32" t="n">
-        <v>-7.890892</v>
-      </c>
-      <c r="H32" t="n">
         <v>110.321258</v>
       </c>
-      <c r="I32" t="b">
-        <v>0</v>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/MA+Negeri+1+Bantul/@-7.943442,110.2179855,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a59ce0408bfc7:0xb7927168fc304f69!8m2!3d-7.8908916!4d110.3212577!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySAQtoaWdoX3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSeGJXWmlTMWgzRUFF4AEA-gEECEYQPA!16s%2Fg%2F1pztq3ybh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J32" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/MA+Negeri+1+Bantul/@-7.943442,110.2179855,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a59ce0408bfc7:0xb7927168fc304f69!8m2!3d-7.8908916!4d110.3212577!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySAQtoaWdoX3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSeGJXWmlTMWgzRUFF4AEA-gEECEYQPA!16s%2Fg%2F1pztq3ybh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -1862,25 +1826,24 @@
           <t>(0274) 374947</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr"/>
+      <c r="E33" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F33" t="n">
-        <v>4.7</v>
+        <v>-7.815469</v>
       </c>
       <c r="G33" t="n">
-        <v>-7.815469</v>
-      </c>
-      <c r="H33" t="n">
         <v>110.350326</v>
       </c>
-      <c r="I33" t="b">
-        <v>0</v>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Sekolah+Menengah+Seni+Rupa/@-7.8154689,110.2782281,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a57edc12c1a6b:0x9ef19b45485b93d3!8m2!3d-7.8154689!4d110.3503259!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySARp2b2NhdGlvbmFsX3RyYWluaW5nX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSUGNFcGhabWgzUlJBQuABAPoBBAgAEDs!16s%2Fg%2F1pzpr15kx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J33" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Sekolah+Menengah+Seni+Rupa/@-7.8154689,110.2782281,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a57edc12c1a6b:0x9ef19b45485b93d3!8m2!3d-7.8154689!4d110.3503259!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySARp2b2NhdGlvbmFsX3RyYWluaW5nX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSUGNFcGhabWgzUlJBQuABAPoBBAgAEDs!16s%2Fg%2F1pzpr15kx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -1903,25 +1866,24 @@
           <t>(0274) 6466054</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr"/>
+      <c r="E34" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F34" t="n">
-        <v>4.6</v>
+        <v>-7.863069</v>
       </c>
       <c r="G34" t="n">
-        <v>-7.863069</v>
-      </c>
-      <c r="H34" t="n">
         <v>110.329372</v>
       </c>
-      <c r="I34" t="b">
-        <v>0</v>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMK+Negeri+1+Sewon/@-7.8154689,110.2782281,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a55e724e681f5:0xe144cfc37be6f4da!8m2!3d-7.863069!4d110.3293724!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySARp2b2NhdGlvbmFsX3RyYWluaW5nX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSdk5GOXBPR3BuUlJBQuABAPoBBAhVEEg!16s%2Fg%2F1pzs0pffp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J34" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMK+Negeri+1+Sewon/@-7.8154689,110.2782281,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a55e724e681f5:0xe144cfc37be6f4da!8m2!3d-7.863069!4d110.3293724!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySARp2b2NhdGlvbmFsX3RyYWluaW5nX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSdk5GOXBPR3BuUlJBQuABAPoBBAhVEEg!16s%2Fg%2F1pzs0pffp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -1944,25 +1906,24 @@
           <t>0895-3384-25447</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr"/>
+      <c r="E35" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F35" t="n">
-        <v>4.7</v>
+        <v>-7.831259</v>
       </c>
       <c r="G35" t="n">
-        <v>-7.831259</v>
-      </c>
-      <c r="H35" t="n">
         <v>110.475436</v>
       </c>
-      <c r="I35" t="b">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr">
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SMA+Muhammadiyah+Piyungan%EA%A7%8B%EA%A6%B1%EA%A7%80%EA%A6%A9%EA%A6%A9%EA%A6%B8%EA%A6%B2%EA%A6%A9%EA%A6%A2%EA%A6%B6%EA%A6%AA%EA%A6%83%EA%A6%A5%EA%A6%B6%EA%A6%AA%EA%A6%B8%EA%A6%94%EA%A6%A4%EA%A7%80/@-7.8312591,110.4033383,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a505549d5e009:0xcfeb4db4d931a623!8m2!3d-7.8312591!4d110.4754361!15sCgpTTUEgQmFudHVskgESc2VuaW9yX2hpZ2hfc2Nob29s4AEA!16s%2Fg%2F1hm40bs2m?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1985,25 +1946,24 @@
           <t>(0274) 379102</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F36" t="n">
-        <v>4.7</v>
+        <v>-7.829085</v>
       </c>
       <c r="G36" t="n">
-        <v>-7.829085</v>
-      </c>
-      <c r="H36" t="n">
         <v>110.360171</v>
       </c>
-      <c r="I36" t="b">
-        <v>0</v>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Madrasah+Aliyah+Ali+Maksum%EA%A6%A9%EA%A6%A3%EA%A6%BF%EA%A6%B1%EA%A6%83%EA%A6%84%EA%A6%AD%EA%A6%B6%EA%A6%AA%EA%A6%83%EA%A6%84%EA%A6%AD%EA%A6%B6%EA%A6%A9%EA%A6%8F%EA%A7%80%EA%A6%B1%EA%A6%B8%EA%A6%A9%EA%A7%80/@-7.8290855,110.2880731,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a57b731c61ae5:0x432c5a30f4bc7f05!8m2!3d-7.8290855!4d110.3601709!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySAQtoaWdoX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOUGRGcHljM0ZuUlJBQuABAPoBBAgAEEU!16s%2Fg%2F1hd_7gfcj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J36" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Madrasah+Aliyah+Ali+Maksum%EA%A6%A9%EA%A6%A3%EA%A6%BF%EA%A6%B1%EA%A6%83%EA%A6%84%EA%A6%AD%EA%A6%B6%EA%A6%AA%EA%A6%83%EA%A6%84%EA%A6%AD%EA%A6%B6%EA%A6%A9%EA%A6%8F%EA%A7%80%EA%A6%B1%EA%A6%B8%EA%A6%A9%EA%A7%80/@-7.8290855,110.2880731,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a57b731c61ae5:0x432c5a30f4bc7f05!8m2!3d-7.8290855!4d110.3601709!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySAQtoaWdoX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOUGRGcHljM0ZuUlJBQuABAPoBBAgAEEU!16s%2Fg%2F1hd_7gfcj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -2026,25 +1986,24 @@
           <t>(0274) 367954</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr"/>
+      <c r="E37" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F37" t="n">
-        <v>4.6</v>
+        <v>-7.902287</v>
       </c>
       <c r="G37" t="n">
-        <v>-7.902287</v>
-      </c>
-      <c r="H37" t="n">
         <v>110.349168</v>
       </c>
-      <c r="I37" t="b">
-        <v>0</v>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMK+Muhammadiyah+1+Bantul/@-7.9022866,110.2770703,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a57b02219a08d:0x50b4ad397f8cdf63!8m2!3d-7.9022866!4d110.3491681!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySARp2b2NhdGlvbmFsX3RyYWluaW5nX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSSE1WcGlSM2RSUlJBQuABAPoBBAgAEEY!16s%2Fg%2F11b41p1dh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J37" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMK+Muhammadiyah+1+Bantul/@-7.9022866,110.2770703,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a57b02219a08d:0x50b4ad397f8cdf63!8m2!3d-7.9022866!4d110.3491681!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySARp2b2NhdGlvbmFsX3RyYWluaW5nX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSSE1WcGlSM2RSUlJBQuABAPoBBAgAEEY!16s%2Fg%2F11b41p1dh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
         <is>
           <t>3 minggu lalu</t>
         </is>
@@ -2067,25 +2026,24 @@
           <t>(0274) 6498409</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr"/>
+      <c r="E38" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F38" t="n">
-        <v>4.3</v>
+        <v>-7.810023</v>
       </c>
       <c r="G38" t="n">
-        <v>-7.810023</v>
-      </c>
-      <c r="H38" t="n">
         <v>110.281654</v>
       </c>
-      <c r="I38" t="b">
-        <v>0</v>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Dharma+Amiluhur/@-7.8100228,110.2095561,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7af9cd78a42f25:0x88ba2fffbaa33284!8m2!3d-7.8100228!4d110.2816539!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySAQtoaWdoX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSMWREUk1aM0IzUlJBQuABAPoBBAgAECI!16s%2Fg%2F1pzs0p3v_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J38" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Dharma+Amiluhur/@-7.8100228,110.2095561,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7af9cd78a42f25:0x88ba2fffbaa33284!8m2!3d-7.8100228!4d110.2816539!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySAQtoaWdoX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSMWREUk1aM0IzUlJBQuABAPoBBAgAECI!16s%2Fg%2F1pzs0p3v_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
         <is>
           <t>8 bulan lalu</t>
         </is>
@@ -2112,25 +2070,24 @@
           <t>(0274) 6593198</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr"/>
+      <c r="E39" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F39" t="n">
-        <v>4.2</v>
+        <v>-7.85995</v>
       </c>
       <c r="G39" t="n">
-        <v>-7.85995</v>
-      </c>
-      <c r="H39" t="n">
         <v>110.360111</v>
       </c>
-      <c r="I39" t="b">
-        <v>0</v>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMK+Pelita+Buana/@-7.8599502,110.2880133,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a556f66a0caad:0xaff847e387e7c9b2!8m2!3d-7.8599502!4d110.3601111!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySARp2b2NhdGlvbmFsX3RyYWluaW5nX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSVVoxazNWSEZCUlJBQuABAPoBBAgAEA8!16s%2Fg%2F1pztvfn_7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J39" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMK+Pelita+Buana/@-7.8599502,110.2880133,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a556f66a0caad:0xaff847e387e7c9b2!8m2!3d-7.8599502!4d110.3601111!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySARp2b2NhdGlvbmFsX3RyYWluaW5nX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSVVoxazNWSEZCUlJBQuABAPoBBAgAEA8!16s%2Fg%2F1pztvfn_7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -2150,22 +2107,21 @@
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
+      <c r="F40" t="n">
+        <v>-7.806856</v>
+      </c>
       <c r="G40" t="n">
-        <v>-7.806856</v>
-      </c>
-      <c r="H40" t="n">
         <v>110.339626</v>
       </c>
-      <c r="I40" t="b">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr">
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SMA+Pembangunan+Yogyakarta/@-7.8599502,110.2880133,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a57fb00000001:0x74849aebc9469015!8m2!3d-7.8068556!4d110.3396262!15sCgpTTUEgQmFudHVskgENcHVibGljX3NjaG9vbOABAA!16s%2Fg%2F1pzx97hpp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2188,25 +2144,24 @@
           <t>(0274) 374467</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr"/>
+      <c r="E41" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F41" t="n">
-        <v>4.3</v>
+        <v>-7.816072</v>
       </c>
       <c r="G41" t="n">
-        <v>-7.816072</v>
-      </c>
-      <c r="H41" t="n">
         <v>110.349795</v>
       </c>
-      <c r="I41" t="b">
-        <v>0</v>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMKI+Yogyakarta+(SMK+Negeri+1+Kasihan)/@-7.8599502,110.2880133,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a57ea227107e3:0x8705db5be54839bf!8m2!3d-7.8160723!4d110.3497946!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySARp2b2NhdGlvbmFsX3RyYWluaW5nX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VONk56aDJWMmxSUlJBQuABAPoBBAgAEBU!16s%2Fg%2F1pzr6xfpc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J41" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMKI+Yogyakarta+(SMK+Negeri+1+Kasihan)/@-7.8599502,110.2880133,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a57ea227107e3:0x8705db5be54839bf!8m2!3d-7.8160723!4d110.3497946!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySARp2b2NhdGlvbmFsX3RyYWluaW5nX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VONk56aDJWMmxSUlJBQuABAPoBBAgAEBU!16s%2Fg%2F1pzr6xfpc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -2229,25 +2184,24 @@
         </is>
       </c>
       <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
+      <c r="E42" t="n">
+        <v>5</v>
+      </c>
       <c r="F42" t="n">
-        <v>5</v>
+        <v>-7.836889</v>
       </c>
       <c r="G42" t="n">
-        <v>-7.836889</v>
-      </c>
-      <c r="H42" t="n">
         <v>110.412101</v>
       </c>
-      <c r="I42" t="b">
-        <v>0</v>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Botanical+Smartpark+SMA+UII+Yogyakarta/@-7.8368888,110.3400033,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a5783fd6ac209:0xe9e8607120de45d5!8m2!3d-7.8368888!4d110.4121011!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySAQZzY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUTFhVzlRVkhkM1JSQULgAQD6AQQIABA2!16s%2Fg%2F11ry2sbt17?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J42" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Botanical+Smartpark+SMA+UII+Yogyakarta/@-7.8368888,110.3400033,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a5783fd6ac209:0xe9e8607120de45d5!8m2!3d-7.8368888!4d110.4121011!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySAQZzY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUTFhVzlRVkhkM1JSQULgAQD6AQQIABA2!16s%2Fg%2F11ry2sbt17?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
         <is>
           <t>7 bulan lalu</t>
         </is>
@@ -2274,25 +2228,24 @@
           <t>0878-2867-0679</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr"/>
+      <c r="E43" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F43" t="n">
-        <v>4.6</v>
+        <v>-7.891074</v>
       </c>
       <c r="G43" t="n">
-        <v>-7.891074</v>
-      </c>
-      <c r="H43" t="n">
         <v>110.327616</v>
       </c>
-      <c r="I43" t="b">
-        <v>0</v>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Muhammadiyah+Boarding+School+%7C+MBS-Muhiba+Yogyakarta/@-7.8910743,110.2555184,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7aff59da36b771:0x8cfbb85dedb1f74a!8m2!3d-7.8910743!4d110.3276162!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySAQ9ib2FyZGluZ19zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTmhia2wxWnpsUlJSQULgAQD6AQUIjAIQOQ!16s%2Fg%2F1tc_yx71?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J43" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Muhammadiyah+Boarding+School+%7C+MBS-Muhiba+Yogyakarta/@-7.8910743,110.2555184,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7aff59da36b771:0x8cfbb85dedb1f74a!8m2!3d-7.8910743!4d110.3276162!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySAQ9ib2FyZGluZ19zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTmhia2wxWnpsUlJSQULgAQD6AQUIjAIQOQ!16s%2Fg%2F1tc_yx71?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -2319,25 +2272,24 @@
           <t>(0274) 374627</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr"/>
+      <c r="E44" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F44" t="n">
-        <v>4.6</v>
+        <v>-7.81428</v>
       </c>
       <c r="G44" t="n">
-        <v>-7.81428</v>
-      </c>
-      <c r="H44" t="n">
         <v>110.350086</v>
       </c>
-      <c r="I44" t="b">
-        <v>0</v>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMK+Negeri+2+Kasihan%2FSMM+Yogyakarta/@-7.8142801,110.2779877,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a57ea2a57a02b:0xc64a7c7ea55e7f1f!8m2!3d-7.8142801!4d110.3500855!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySAQxtdXNpY19zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTnFNblJUUVd4M1JSQULgAQD6AQQIQxAl!16s%2Fg%2F1hm61nm0w?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J44" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMK+Negeri+2+Kasihan%2FSMM+Yogyakarta/@-7.8142801,110.2779877,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a57ea2a57a02b:0xc64a7c7ea55e7f1f!8m2!3d-7.8142801!4d110.3500855!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySAQxtdXNpY19zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTnFNblJUUVd4M1JSQULgAQD6AQQIQxAl!16s%2Fg%2F1hm61nm0w?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
         <is>
           <t>3 minggu lalu</t>
         </is>
@@ -2364,25 +2316,24 @@
           <t>(0274) 489693</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr"/>
+      <c r="E45" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F45" t="n">
-        <v>4.8</v>
+        <v>-7.81433</v>
       </c>
       <c r="G45" t="n">
-        <v>-7.81433</v>
-      </c>
-      <c r="H45" t="n">
         <v>110.376034</v>
       </c>
-      <c r="I45" t="b">
-        <v>0</v>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+UII+Yogyakarta/@-7.8142801,110.2779877,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a59dee3b185cb:0x807da5c3419221f1!8m2!3d-7.81433!4d110.376034!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySARJzZW5pb3JfaGlnaF9zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTjJNell6ZWxoUkVBReABAPoBBAgAECw!16s%2Fg%2F1hm3c8ymv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J45" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+UII+Yogyakarta/@-7.8142801,110.2779877,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a59dee3b185cb:0x807da5c3419221f1!8m2!3d-7.81433!4d110.376034!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySARJzZW5pb3JfaGlnaF9zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTjJNell6ZWxoUkVBReABAPoBBAgAECw!16s%2Fg%2F1hm3c8ymv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -2401,25 +2352,24 @@
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
+      <c r="E46" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F46" t="n">
-        <v>4.2</v>
+        <v>-7.883585</v>
       </c>
       <c r="G46" t="n">
-        <v>-7.883585</v>
-      </c>
-      <c r="H46" t="n">
         <v>110.331371</v>
       </c>
-      <c r="I46" t="b">
-        <v>0</v>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMK+Nasional+Bantul+Yogyakarta/@-7.8835855,110.2592733,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a55bc31a975cb:0xdd9893d7254506cd!8m2!3d-7.8835855!4d110.3313711!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySAQZzY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUTJNalptZW5ablJSQULgAQD6AQQIKBA-!16s%2Fg%2F11hznhbc_b?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J46" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMK+Nasional+Bantul+Yogyakarta/@-7.8835855,110.2592733,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a55bc31a975cb:0xdd9893d7254506cd!8m2!3d-7.8835855!4d110.3313711!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySAQZzY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUTJNalptZW5ablJSQULgAQD6AQQIKBA-!16s%2Fg%2F11hznhbc_b?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
         <is>
           <t>2 hari lalu</t>
         </is>
@@ -2442,25 +2392,24 @@
           <t>(0274) 6460410</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr"/>
+      <c r="E47" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F47" t="n">
-        <v>4.2</v>
+        <v>-7.923555</v>
       </c>
       <c r="G47" t="n">
-        <v>-7.923555</v>
-      </c>
-      <c r="H47" t="n">
         <v>110.311661</v>
       </c>
-      <c r="I47" t="b">
-        <v>0</v>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMK+Muhammadiyah+1+Bambanglipuro/@-7.8835855,110.2592733,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7aff9871276f6b:0xc70680e1b413d861!8m2!3d-7.9235547!4d110.3116611!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySARp2b2NhdGlvbmFsX3RyYWluaW5nX3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSUGNFNXVVa3QzRUFF4AEA-gEECAAQQQ!16s%2Fg%2F1hm1ynztt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J47" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMK+Muhammadiyah+1+Bambanglipuro/@-7.8835855,110.2592733,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7aff9871276f6b:0xc70680e1b413d861!8m2!3d-7.9235547!4d110.3116611!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySARp2b2NhdGlvbmFsX3RyYWluaW5nX3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSUGNFNXVVa3QzRUFF4AEA-gEECAAQQQ!16s%2Fg%2F1hm1ynztt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
         <is>
           <t>4 minggu lalu</t>
         </is>
@@ -2487,25 +2436,24 @@
           <t>(0274) 367191</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr"/>
+      <c r="E48" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F48" t="n">
-        <v>4.9</v>
+        <v>-7.894568</v>
       </c>
       <c r="G48" t="n">
-        <v>-7.894568</v>
-      </c>
-      <c r="H48" t="n">
         <v>110.332723</v>
       </c>
-      <c r="I48" t="b">
-        <v>0</v>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMK+Muhammadiyah+2+Bantul/@-7.8835855,110.2592733,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a55fed219e9e5:0x8622b985cb23e1a3!8m2!3d-7.8945678!4d110.3327232!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySARp2b2NhdGlvbmFsX3RyYWluaW5nX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOSE0wNTFUWFJSUlJBQuABAPoBBAgAECQ!16s%2Fg%2F1pzv3w0dd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J48" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMK+Muhammadiyah+2+Bantul/@-7.8835855,110.2592733,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a55fed219e9e5:0x8622b985cb23e1a3!8m2!3d-7.8945678!4d110.3327232!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySARp2b2NhdGlvbmFsX3RyYWluaW5nX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOSE0wNTFUWFJSUlJBQuABAPoBBAgAECQ!16s%2Fg%2F1pzv3w0dd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
         <is>
           <t>11 bulan lalu</t>
         </is>
@@ -2532,25 +2480,24 @@
           <t>(0274) 2811974</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr"/>
+      <c r="E49" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F49" t="n">
-        <v>4.4</v>
+        <v>-7.861248</v>
       </c>
       <c r="G49" t="n">
-        <v>-7.861248</v>
-      </c>
-      <c r="H49" t="n">
         <v>110.35339</v>
       </c>
-      <c r="I49" t="b">
-        <v>0</v>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Balai+Pendidikan+Menengah+Kabupaten+Bantul/@-7.8835855,110.2592733,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a55f3e8216f41:0x88021ece5b744059!8m2!3d-7.8612477!4d110.35339!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySARdlZHVjYXRpb25hbF9pbnN0aXR1dGlvbpoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOQ09UWmZMV3RSUlJBQuABAPoBBAgAEEY!16s%2Fg%2F11b6p0tv5m?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J49" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Balai+Pendidikan+Menengah+Kabupaten+Bantul/@-7.8835855,110.2592733,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a55f3e8216f41:0x88021ece5b744059!8m2!3d-7.8612477!4d110.35339!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySARdlZHVjYXRpb25hbF9pbnN0aXR1dGlvbpoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOQ09UWmZMV3RSUlJBQuABAPoBBAgAEEY!16s%2Fg%2F11b6p0tv5m?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
         <is>
           <t>7 bulan lalu</t>
         </is>
@@ -2573,25 +2520,24 @@
           <t>0897-5988-501</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr"/>
+      <c r="E50" t="n">
+        <v>5</v>
+      </c>
       <c r="F50" t="n">
-        <v>5</v>
+        <v>-7.878686</v>
       </c>
       <c r="G50" t="n">
-        <v>-7.878686</v>
-      </c>
-      <c r="H50" t="n">
         <v>110.333932</v>
       </c>
-      <c r="I50" t="b">
-        <v>0</v>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMK+17+Bantul/@-7.8835855,110.2592733,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a57a635240127:0x6724be3015f9cb95!8m2!3d-7.8786865!4d110.3339321!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySAQtoaWdoX3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSdE4zTklla1puRUFF4AEA-gEECAAQKA!16s%2Fg%2F11r6yr3lxg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J50" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMK+17+Bantul/@-7.8835855,110.2592733,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a57a635240127:0x6724be3015f9cb95!8m2!3d-7.8786865!4d110.3339321!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySAQtoaWdoX3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSdE4zTklla1puRUFF4AEA-gEECAAQKA!16s%2Fg%2F11r6yr3lxg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
@@ -2618,25 +2564,24 @@
           <t>(0274) 452188</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr"/>
+      <c r="E51" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F51" t="n">
-        <v>4.4</v>
+        <v>-7.805909</v>
       </c>
       <c r="G51" t="n">
-        <v>-7.805909</v>
-      </c>
-      <c r="H51" t="n">
         <v>110.408156</v>
       </c>
-      <c r="I51" t="b">
-        <v>0</v>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/MAN+4+Bantul/@-7.8059095,110.3360579,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a57435c276bcf:0x4e7e3c3eab7c3e5c!8m2!3d-7.8059095!4d110.4081557!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySARJzZW5pb3JfaGlnaF9zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTnRkR1V5UmtwQkVBReABAPoBBAgAECQ!16s%2Fg%2F11cjw7lgxs?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J51" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/MAN+4+Bantul/@-7.8059095,110.3360579,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a57435c276bcf:0x4e7e3c3eab7c3e5c!8m2!3d-7.8059095!4d110.4081557!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySARJzZW5pb3JfaGlnaF9zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTnRkR1V5UmtwQkVBReABAPoBBAgAECQ!16s%2Fg%2F11cjw7lgxs?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -2663,25 +2608,24 @@
           <t>0852-2801-5905</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr"/>
+      <c r="E52" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F52" t="n">
-        <v>4.3</v>
+        <v>-7.964996</v>
       </c>
       <c r="G52" t="n">
-        <v>-7.964996</v>
-      </c>
-      <c r="H52" t="n">
         <v>110.320575</v>
       </c>
-      <c r="I52" t="b">
-        <v>0</v>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMK+PARIWISATA+BANTUL/@-7.964996,110.2484772,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7b0002e84c978f:0xb306528b2ace56fb!8m2!3d-7.964996!4d110.320575!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySARp2b2NhdGlvbmFsX3RyYWluaW5nX3NjaG9vbOABAA!16s%2Fg%2F11b6s3lh2_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J52" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMK+PARIWISATA+BANTUL/@-7.964996,110.2484772,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7b0002e84c978f:0xb306528b2ace56fb!8m2!3d-7.964996!4d110.320575!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySARp2b2NhdGlvbmFsX3RyYWluaW5nX3NjaG9vbOABAA!16s%2Fg%2F11b6s3lh2_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -2700,25 +2644,24 @@
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr"/>
+      <c r="E53" t="n">
+        <v>5</v>
+      </c>
       <c r="F53" t="n">
-        <v>5</v>
+        <v>-7.893983</v>
       </c>
       <c r="G53" t="n">
-        <v>-7.893983</v>
-      </c>
-      <c r="H53" t="n">
         <v>110.431443</v>
       </c>
-      <c r="I53" t="b">
-        <v>0</v>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Asrama+Putri+SMA+MBS+Pleret,+Bantul,+Yogyakarta/@-7.8939825,110.3593454,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a53f49a798285:0xc151c0d1f9571f6c!8m2!3d-7.8939825!4d110.4314432!15sCgpTTUEgQmFudHVskgEQcmVsaWdpb3VzX3NjaG9vbOABAA!16s%2Fg%2F11fz55hgrb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J53" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Asrama+Putri+SMA+MBS+Pleret,+Bantul,+Yogyakarta/@-7.8939825,110.3593454,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a53f49a798285:0xc151c0d1f9571f6c!8m2!3d-7.8939825!4d110.4314432!15sCgpTTUEgQmFudHVskgEQcmVsaWdpb3VzX3NjaG9vbOABAA!16s%2Fg%2F11fz55hgrb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -2737,25 +2680,24 @@
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr"/>
+      <c r="E54" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F54" t="n">
-        <v>4.4</v>
+        <v>-7.921666</v>
       </c>
       <c r="G54" t="n">
-        <v>-7.921666</v>
-      </c>
-      <c r="H54" t="n">
         <v>110.295747</v>
       </c>
-      <c r="I54" t="b">
-        <v>0</v>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMK+N+1+Pandak/@-7.9216664,110.2236494,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7aff086d733939:0xb21aa8b4a860a56a!8m2!3d-7.9216664!4d110.2957472!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySARp2b2NhdGlvbmFsX3RyYWluaW5nX3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSWU1GQkRSR05CRUFF4AEA-gEECEEQRQ!16s%2Fg%2F1hm59_gm3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J54" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMK+N+1+Pandak/@-7.9216664,110.2236494,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7aff086d733939:0xb21aa8b4a860a56a!8m2!3d-7.9216664!4d110.2957472!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySARp2b2NhdGlvbmFsX3RyYWluaW5nX3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSWU1GQkRSR05CRUFF4AEA-gEECEEQRQ!16s%2Fg%2F1hm59_gm3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -2778,25 +2720,24 @@
           <t>(0274) 4283403</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr"/>
+      <c r="E55" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F55" t="n">
-        <v>4.8</v>
+        <v>-7.825254</v>
       </c>
       <c r="G55" t="n">
-        <v>-7.825254</v>
-      </c>
-      <c r="H55" t="n">
         <v>110.360768</v>
       </c>
-      <c r="I55" t="b">
-        <v>0</v>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Komplek+Tahfidz+Putri+SMP-SMA/@-7.825254,110.2886699,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a57ba28ed717b:0x82398cf1b2f78d3d!8m2!3d-7.825254!4d110.3607677!15sCgpTTUEgQmFudHVskgEQcmVsaWdpb3VzX3NjaG9vbOABAA!16s%2Fg%2F11f53h61xp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J55" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Komplek+Tahfidz+Putri+SMP-SMA/@-7.825254,110.2886699,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a57ba28ed717b:0x82398cf1b2f78d3d!8m2!3d-7.825254!4d110.3607677!15sCgpTTUEgQmFudHVskgEQcmVsaWdpb3VzX3NjaG9vbOABAA!16s%2Fg%2F11f53h61xp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -2819,25 +2760,24 @@
         </is>
       </c>
       <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr"/>
+      <c r="E56" t="n">
+        <v>5</v>
+      </c>
       <c r="F56" t="n">
-        <v>5</v>
+        <v>-7.897751</v>
       </c>
       <c r="G56" t="n">
-        <v>-7.897751</v>
-      </c>
-      <c r="H56" t="n">
         <v>110.322386</v>
       </c>
-      <c r="I56" t="b">
-        <v>0</v>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/FILIAL/@-7.8977509,110.2502884,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7aff5c5c08dcf1:0xd98b7c1ab31f5ebe!8m2!3d-7.8977509!4d110.3223862!15sCgpTTUEgQmFudHVskgEGc2Nob29s4AEA!16s%2Fg%2F11c2q3t20_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J56" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/FILIAL/@-7.8977509,110.2502884,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7aff5c5c08dcf1:0xd98b7c1ab31f5ebe!8m2!3d-7.8977509!4d110.3223862!15sCgpTTUEgQmFudHVskgEGc2Nob29s4AEA!16s%2Fg%2F11c2q3t20_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
         <is>
           <t>4 tahun lalu</t>
         </is>
@@ -2860,25 +2800,24 @@
           <t>(0274) 391079</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr"/>
+      <c r="E57" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F57" t="n">
-        <v>4.6</v>
+        <v>-7.965351</v>
       </c>
       <c r="G57" t="n">
-        <v>-7.965351</v>
-      </c>
-      <c r="H57" t="n">
         <v>110.599184</v>
       </c>
-      <c r="I57" t="b">
-        <v>0</v>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMAN+1+Wonosari/@-7.8053056,110.2139841,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7bb342be5bf84f:0x9ee9bfbad0191976!8m2!3d-7.9653511!4d110.5991838!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgELaGlnaF9zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTlhhSEpMUkdKQkVBReABAPoBBAgAEC4!16s%2Fm%2F05p43xr?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J57" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMAN+1+Wonosari/@-7.8053056,110.2139841,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7bb342be5bf84f:0x9ee9bfbad0191976!8m2!3d-7.9653511!4d110.5991838!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgELaGlnaF9zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTlhhSEpMUkdKQkVBReABAPoBBAgAEC4!16s%2Fm%2F05p43xr?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -2905,25 +2844,24 @@
           <t>(0274) 391122</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr"/>
+      <c r="E58" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F58" t="n">
-        <v>4.7</v>
+        <v>-7.969744</v>
       </c>
       <c r="G58" t="n">
-        <v>-7.969744</v>
-      </c>
-      <c r="H58" t="n">
         <v>110.594343</v>
       </c>
-      <c r="I58" t="b">
-        <v>0</v>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+2+Wonosari/@-7.8053056,110.2139841,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7bb36a9dcad38b:0x2f04037386140e17!8m2!3d-7.969744!4d110.594343!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgESc2VuaW9yX2hpZ2hfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVEyY0U5aGFURlJSUkFC4AEA-gEECAAQOg!16s%2Fm%2F05p31x4?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J58" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+2+Wonosari/@-7.8053056,110.2139841,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7bb36a9dcad38b:0x2f04037386140e17!8m2!3d-7.969744!4d110.594343!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgESc2VuaW9yX2hpZ2hfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVEyY0U5aGFURlJSUkFC4AEA-gEECAAQOg!16s%2Fm%2F05p31x4?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -2950,25 +2888,24 @@
           <t>(0274) 391176</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr"/>
+      <c r="E59" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F59" t="n">
-        <v>4.6</v>
+        <v>-7.937232</v>
       </c>
       <c r="G59" t="n">
-        <v>-7.937232</v>
-      </c>
-      <c r="H59" t="n">
         <v>110.574316</v>
       </c>
-      <c r="I59" t="b">
-        <v>0</v>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMAN+2+PLAYEN/@-7.8053056,110.2139841,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7a4cd9761a7903:0xaded09ef76627e86!8m2!3d-7.937232!4d110.574316!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgESc2VuaW9yX2hpZ2hfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJpYkhBeVpYWkJSUkFC4AEA-gEECAAQMg!16s%2Fg%2F1tfwgt86?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J59" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMAN+2+PLAYEN/@-7.8053056,110.2139841,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7a4cd9761a7903:0xaded09ef76627e86!8m2!3d-7.937232!4d110.574316!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgESc2VuaW9yX2hpZ2hfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJpYkhBeVpYWkJSUkFC4AEA-gEECAAQMg!16s%2Fg%2F1tfwgt86?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -2995,25 +2932,24 @@
           <t>(0274) 2910550</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr"/>
+      <c r="E60" t="n">
+        <v>5</v>
+      </c>
       <c r="F60" t="n">
-        <v>5</v>
+        <v>-7.966436</v>
       </c>
       <c r="G60" t="n">
-        <v>-7.966436</v>
-      </c>
-      <c r="H60" t="n">
         <v>110.544961</v>
       </c>
-      <c r="I60" t="b">
-        <v>0</v>
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Negeri+1+Playen/@-7.8053056,110.2139841,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7bb2b898cd0e77:0xe2372376371791f4!8m2!3d-7.9664356!4d110.5449606!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgESc2VuaW9yX2hpZ2hfc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVEyYjJSMk5XWlJFQUXgAQD6AQQIABA6!16s%2Fg%2F1wf4qvyh?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J60" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Negeri+1+Playen/@-7.8053056,110.2139841,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7bb2b898cd0e77:0xe2372376371791f4!8m2!3d-7.9664356!4d110.5449606!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgESc2VuaW9yX2hpZ2hfc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVEyYjJSMk5XWlJFQUXgAQD6AQQIABA6!16s%2Fg%2F1wf4qvyh?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -3036,25 +2972,24 @@
           <t>0817-9420-901</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr"/>
+      <c r="E61" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F61" t="n">
-        <v>4.2</v>
+        <v>-8.009957</v>
       </c>
       <c r="G61" t="n">
-        <v>-8.009957</v>
-      </c>
-      <c r="H61" t="n">
         <v>110.64553</v>
       </c>
-      <c r="I61" t="b">
-        <v>0</v>
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Negeri+1+Semanu/@-7.8053056,110.2139841,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7bb43935aed767:0x74abbfa038a548bc!8m2!3d-8.0099574!4d110.6455297!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgELaGlnaF9zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUmZjM1ZJTW05M1JSQULgAQD6AQQIABAR!16s%2Fg%2F11bz_z6v6c?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J61" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Negeri+1+Semanu/@-7.8053056,110.2139841,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7bb43935aed767:0x74abbfa038a548bc!8m2!3d-8.0099574!4d110.6455297!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgELaGlnaF9zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUmZjM1ZJTW05M1JSQULgAQD6AQQIABAR!16s%2Fg%2F11bz_z6v6c?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -3077,25 +3012,24 @@
           <t>(0274) 3950585</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr"/>
+      <c r="E62" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F62" t="n">
-        <v>4.2</v>
+        <v>-7.875775</v>
       </c>
       <c r="G62" t="n">
-        <v>-7.875775</v>
-      </c>
-      <c r="H62" t="n">
         <v>110.542808</v>
       </c>
-      <c r="I62" t="b">
-        <v>0</v>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Negeri+1+Patuk/@-7.8053056,110.2139841,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7a4de721e039c3:0xbf377267e2a68efb!8m2!3d-7.8757749!4d110.5428083!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgELaGlnaF9zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTnRPRGhJWVdWQkVBReABAPoBBAgAECs!16s%2Fg%2F1hm4fybbp?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J62" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Negeri+1+Patuk/@-7.8053056,110.2139841,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7a4de721e039c3:0xbf377267e2a68efb!8m2!3d-7.8757749!4d110.5428083!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgELaGlnaF9zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTnRPRGhJWVdWQkVBReABAPoBBAgAECs!16s%2Fg%2F1hm4fybbp?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -3118,25 +3052,24 @@
         </is>
       </c>
       <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr"/>
+      <c r="E63" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F63" t="n">
-        <v>4.4</v>
+        <v>-8.022124</v>
       </c>
       <c r="G63" t="n">
-        <v>-8.022124</v>
-      </c>
-      <c r="H63" t="n">
         <v>110.420992</v>
       </c>
-      <c r="I63" t="b">
-        <v>0</v>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Negeri+1+Panggang/@-7.8053056,110.2139841,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7babf49aafe391:0xa08bdd24ba5dd528!8m2!3d-8.0221237!4d110.4209916!15sCg9TTUEgR3VudW5na2lkdWySAQZzY2hvb2zgAQA!16s%2Fg%2F1hm328k25?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J63" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Negeri+1+Panggang/@-7.8053056,110.2139841,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7babf49aafe391:0xa08bdd24ba5dd528!8m2!3d-8.0221237!4d110.4209916!15sCg9TTUEgR3VudW5na2lkdWySAQZzY2hvb2zgAQA!16s%2Fg%2F1hm328k25?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
@@ -3163,25 +3096,24 @@
           <t>(0274) 391014</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr"/>
+      <c r="E64" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F64" t="n">
-        <v>4.7</v>
+        <v>-7.95368</v>
       </c>
       <c r="G64" t="n">
-        <v>-7.95368</v>
-      </c>
-      <c r="H64" t="n">
         <v>110.592677</v>
       </c>
-      <c r="I64" t="b">
-        <v>0</v>
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Muhammadiyah+Al-Mujahidin+Wonosari/@-7.8053056,110.2139841,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7bb335faeb1361:0xa7e59d378476454d!8m2!3d-7.9536796!4d110.5926767!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgELaGlnaF9zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUlVja3B1YlRGblJSQULgAQD6AQQIABA6!16s%2Fg%2F1hm316zx2?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J64" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Muhammadiyah+Al-Mujahidin+Wonosari/@-7.8053056,110.2139841,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7bb335faeb1361:0xa7e59d378476454d!8m2!3d-7.9536796!4d110.5926767!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgELaGlnaF9zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUlVja3B1YlRGblJSQULgAQD6AQQIABA6!16s%2Fg%2F1hm316zx2?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
         <is>
           <t>6 hari lalu</t>
         </is>
@@ -3208,25 +3140,24 @@
           <t>(0274) 2910288</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr"/>
+      <c r="E65" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F65" t="n">
-        <v>4.8</v>
+        <v>-7.966095</v>
       </c>
       <c r="G65" t="n">
-        <v>-7.966095</v>
-      </c>
-      <c r="H65" t="n">
         <v>110.672648</v>
       </c>
-      <c r="I65" t="b">
-        <v>0</v>
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMAN+1+KARANGMOJO/@-7.9660953,110.3842565,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7bb522e46a7fb3:0xc264c7357307cb3e!8m2!3d-7.9660953!4d110.6726476!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgESc2VuaW9yX2hpZ2hfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU15YldaNmRuWm5SUkFC4AEA-gEECAAQJw!16s%2Fg%2F1thh4w2g?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J65" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMAN+1+KARANGMOJO/@-7.9660953,110.3842565,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7bb522e46a7fb3:0xc264c7357307cb3e!8m2!3d-7.9660953!4d110.6726476!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgESc2VuaW9yX2hpZ2hfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU15YldaNmRuWm5SUkFC4AEA-gEECAAQJw!16s%2Fg%2F1thh4w2g?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -3253,25 +3184,24 @@
           <t>0811-252-173</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr"/>
+      <c r="E66" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F66" t="n">
-        <v>4.8</v>
+        <v>-8.066053</v>
       </c>
       <c r="G66" t="n">
-        <v>-8.066053</v>
-      </c>
-      <c r="H66" t="n">
         <v>110.757822</v>
       </c>
-      <c r="I66" t="b">
-        <v>0</v>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Negeri+1+Rongkop/@-7.9660953,110.3842565,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7bc855184564f3:0x59136facf7cf84a8!8m2!3d-8.0660529!4d110.7578215!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgESc2VuaW9yX2hpZ2hfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJJZDA1ZlpUSkJSUkFC4AEA-gEECAAQNg!16s%2Fg%2F1hm3wxw39?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J66" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Negeri+1+Rongkop/@-7.9660953,110.3842565,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7bc855184564f3:0x59136facf7cf84a8!8m2!3d-8.0660529!4d110.7578215!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgESc2VuaW9yX2hpZ2hfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJJZDA1ZlpUSkJSUkFC4AEA-gEECAAQNg!16s%2Fg%2F1hm3wxw39?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -3294,25 +3224,24 @@
         </is>
       </c>
       <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr"/>
+      <c r="E67" t="n">
+        <v>3.6</v>
+      </c>
       <c r="F67" t="n">
-        <v>3.6</v>
+        <v>-7.970666</v>
       </c>
       <c r="G67" t="n">
-        <v>-7.970666</v>
-      </c>
-      <c r="H67" t="n">
         <v>110.607682</v>
       </c>
-      <c r="I67" t="b">
-        <v>0</v>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA%2FSMK+Dominikus,+Wonosari/@-7.9660953,110.3842565,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7bb340238d94d9:0x2646a49d06095f68!8m2!3d-7.9706661!4d110.607682!15sCg9TTUEgR3VudW5na2lkdWySAQtoaWdoX3NjaG9vbOABAA!16s%2Fg%2F11h0vtw0bd?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J67" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA%2FSMK+Dominikus,+Wonosari/@-7.9660953,110.3842565,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7bb340238d94d9:0x2646a49d06095f68!8m2!3d-7.9706661!4d110.607682!15sCg9TTUEgR3VudW5na2lkdWySAQtoaWdoX3NjaG9vbOABAA!16s%2Fg%2F11h0vtw0bd?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -3339,25 +3268,24 @@
           <t>0813-2874-7256</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr"/>
+      <c r="E68" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F68" t="n">
-        <v>4.6</v>
+        <v>-8.063420000000001</v>
       </c>
       <c r="G68" t="n">
-        <v>-8.063420000000001</v>
-      </c>
-      <c r="H68" t="n">
         <v>110.57749</v>
       </c>
-      <c r="I68" t="b">
-        <v>0</v>
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMAN+1+Tanjungsari/@-7.9660953,110.3842565,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7bb10f7d3ee2df:0x487d7f14072713e5!8m2!3d-8.06342!4d110.57749!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgELaGlnaF9zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUXRhazFIV1ZKUkVBReABAPoBBAgWEEA!16s%2Fg%2F1hm2wf3kp?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J68" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMAN+1+Tanjungsari/@-7.9660953,110.3842565,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7bb10f7d3ee2df:0x487d7f14072713e5!8m2!3d-8.06342!4d110.57749!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgELaGlnaF9zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUXRhazFIV1ZKUkVBReABAPoBBAgWEEA!16s%2Fg%2F1hm2wf3kp?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
@@ -3380,25 +3308,24 @@
           <t>391122</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr"/>
+      <c r="E69" t="n">
+        <v>5</v>
+      </c>
       <c r="F69" t="n">
-        <v>5</v>
+        <v>-7.969753</v>
       </c>
       <c r="G69" t="n">
-        <v>-7.969753</v>
-      </c>
-      <c r="H69" t="n">
         <v>110.595311</v>
       </c>
-      <c r="I69" t="b">
-        <v>0</v>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Pembangunan+1+Wonosari/@-7.9660953,110.3842565,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7bb373748e6d31:0x1bf189a4b19dc00f!8m2!3d-7.9697526!4d110.5953112!15sCg9TTUEgR3VudW5na2lkdWySAQZzY2hvb2zgAQA!16s%2Fg%2F11h_34tnyh?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J69" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Pembangunan+1+Wonosari/@-7.9660953,110.3842565,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7bb373748e6d31:0x1bf189a4b19dc00f!8m2!3d-7.9697526!4d110.5953112!15sCg9TTUEgR3VudW5na2lkdWySAQZzY2hvb2zgAQA!16s%2Fg%2F11h_34tnyh?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
         <is>
           <t>4 tahun lalu</t>
         </is>
@@ -3421,25 +3348,24 @@
         </is>
       </c>
       <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr"/>
+      <c r="E70" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F70" t="n">
-        <v>4.5</v>
+        <v>-7.96309</v>
       </c>
       <c r="G70" t="n">
-        <v>-7.96309</v>
-      </c>
-      <c r="H70" t="n">
         <v>110.607998</v>
       </c>
-      <c r="I70" t="b">
-        <v>0</v>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMK+Negeri+3+Wonosari/@-7.9660953,110.3842565,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7bb35bf29cf32b:0x7355c0075c86b811!8m2!3d-7.9630902!4d110.6079976!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgEadm9jYXRpb25hbF90cmFpbmluZ19zY2hvb2zgAQA!16s%2Fg%2F1ptx7jt0f?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J70" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMK+Negeri+3+Wonosari/@-7.9660953,110.3842565,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7bb35bf29cf32b:0x7355c0075c86b811!8m2!3d-7.9630902!4d110.6079976!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgEadm9jYXRpb25hbF90cmFpbmluZ19zY2hvb2zgAQA!16s%2Fg%2F1ptx7jt0f?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -3462,25 +3388,24 @@
           <t>(0274) 2901978</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr"/>
+      <c r="E71" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F71" t="n">
-        <v>4.1</v>
+        <v>-7.945257</v>
       </c>
       <c r="G71" t="n">
-        <v>-7.945257</v>
-      </c>
-      <c r="H71" t="n">
         <v>110.554801</v>
       </c>
-      <c r="I71" t="b">
-        <v>0</v>
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+PGRI+Playen/@-7.9660953,110.3842565,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7a4de7e98298bf:0x7121cbb7b509bde3!8m2!3d-7.9452568!4d110.5548009!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgESc2VuaW9yX2hpZ2hfc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJYTm1abVIwZG5FQUXgAQD6AQQIABAR!16s%2Fg%2F11h4pq49wn?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J71" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+PGRI+Playen/@-7.9660953,110.3842565,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7a4de7e98298bf:0x7121cbb7b509bde3!8m2!3d-7.9452568!4d110.5548009!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgESc2VuaW9yX2hpZ2hfc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJYTm1abVIwZG5FQUXgAQD6AQQIABAR!16s%2Fg%2F11h4pq49wn?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -3503,25 +3428,24 @@
           <t>(0274) 392277</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr"/>
+      <c r="E72" t="n">
+        <v>5</v>
+      </c>
       <c r="F72" t="n">
-        <v>5</v>
+        <v>-7.955644</v>
       </c>
       <c r="G72" t="n">
-        <v>-7.955644</v>
-      </c>
-      <c r="H72" t="n">
         <v>110.67839</v>
       </c>
-      <c r="I72" t="b">
-        <v>0</v>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Pembangunan+2+Karangmojo/@-7.9660953,110.3842565,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7a4acbfee70d41:0xd2fe167ca18f02a4!8m2!3d-7.9556442!4d110.6783896!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgEGc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU14TkMxWGNrbDNFQUXgAQD6AQQIABAb!16s%2Fg%2F1ptwt24b_?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J72" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Pembangunan+2+Karangmojo/@-7.9660953,110.3842565,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7a4acbfee70d41:0xd2fe167ca18f02a4!8m2!3d-7.9556442!4d110.6783896!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgEGc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU14TkMxWGNrbDNFQUXgAQD6AQQIABAb!16s%2Fg%2F1ptwt24b_?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -3540,25 +3464,24 @@
       </c>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr"/>
+      <c r="E73" t="n">
+        <v>4</v>
+      </c>
       <c r="F73" t="n">
-        <v>4</v>
+        <v>-7.865958</v>
       </c>
       <c r="G73" t="n">
-        <v>-7.865958</v>
-      </c>
-      <c r="H73" t="n">
         <v>110.7385</v>
       </c>
-      <c r="I73" t="b">
-        <v>0</v>
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+-SMA-SMK-Gotong+Royong+Semin/@-7.9660953,110.3842565,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7a35ddb117c2a1:0x2916dcd763134259!8m2!3d-7.8659577!4d110.7385001!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgENbWlkZGxlX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSS2FuQnliWEZuUlJBQuABAPoBBAgAEBo!16s%2Fg%2F1hm1pqr_r?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J73" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+-SMA-SMK-Gotong+Royong+Semin/@-7.9660953,110.3842565,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7a35ddb117c2a1:0x2916dcd763134259!8m2!3d-7.8659577!4d110.7385001!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgENbWlkZGxlX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSS2FuQnliWEZuUlJBQuABAPoBBAgAEBo!16s%2Fg%2F1hm1pqr_r?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
         <is>
           <t>7 bulan lalu</t>
         </is>
@@ -3581,25 +3504,24 @@
           <t>(0274) 4390389</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr"/>
+      <c r="E74" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F74" t="n">
-        <v>4.6</v>
+        <v>-7.856653</v>
       </c>
       <c r="G74" t="n">
-        <v>-7.856653</v>
-      </c>
-      <c r="H74" t="n">
         <v>110.735221</v>
       </c>
-      <c r="I74" t="b">
-        <v>0</v>
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+N+1+Semin/@-7.9660953,110.3842565,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7a360b25d177c9:0xe9b4ed7f5411add0!8m2!3d-7.8566531!4d110.7352207!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgEGc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJTZWpWRFYwWjNFQUXgAQD6AQQIGRAc!16s%2Fg%2F1pzrdy1x7?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J74" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+N+1+Semin/@-7.9660953,110.3842565,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7a360b25d177c9:0xe9b4ed7f5411add0!8m2!3d-7.8566531!4d110.7352207!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgEGc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJTZWpWRFYwWjNFQUXgAQD6AQQIGRAc!16s%2Fg%2F1pzrdy1x7?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -3618,25 +3540,24 @@
       </c>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr"/>
+      <c r="E75" t="n">
+        <v>5</v>
+      </c>
       <c r="F75" t="n">
-        <v>5</v>
+        <v>-7.837256</v>
       </c>
       <c r="G75" t="n">
-        <v>-7.837256</v>
-      </c>
-      <c r="H75" t="n">
         <v>110.700763</v>
       </c>
-      <c r="I75" t="b">
-        <v>0</v>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Muhammadiyah+Ngawen+Gunungkidul/@-7.9660953,110.3842565,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7a495efcd8d465:0xd3c0cb1827879347!8m2!3d-7.8372565!4d110.7007625!15sCg9TTUEgR3VudW5na2lkdWySAQtoaWdoX3NjaG9vbOABAA!16s%2Fg%2F11kpy8dfqm?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J75" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Muhammadiyah+Ngawen+Gunungkidul/@-7.9660953,110.3842565,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7a495efcd8d465:0xd3c0cb1827879347!8m2!3d-7.8372565!4d110.7007625!15sCg9TTUEgR3VudW5na2lkdWySAQtoaWdoX3NjaG9vbOABAA!16s%2Fg%2F11kpy8dfqm?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -3659,25 +3580,24 @@
           <t>(0274) 392277</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr"/>
+      <c r="E76" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F76" t="n">
-        <v>4.7</v>
+        <v>-7.95526</v>
       </c>
       <c r="G76" t="n">
-        <v>-7.95526</v>
-      </c>
-      <c r="H76" t="n">
         <v>110.678192</v>
       </c>
-      <c r="I76" t="b">
-        <v>0</v>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMK+(STM)+Pembangunan+Karangmojo/@-7.9660953,110.3842565,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7bb53a9923daab:0x73ed8fa7003565f8!8m2!3d-7.9552602!4d110.6781921!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgEadm9jYXRpb25hbF90cmFpbmluZ19zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUjFjeTFVUlhKQlJSQULgAQD6AQUI9gEQQw!16s%2Fg%2F1hm30m44p?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J76" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMK+(STM)+Pembangunan+Karangmojo/@-7.9660953,110.3842565,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7bb53a9923daab:0x73ed8fa7003565f8!8m2!3d-7.9552602!4d110.6781921!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgEadm9jYXRpb25hbF90cmFpbmluZ19zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUjFjeTFVUlhKQlJSQULgAQD6AQUI9gEQQw!16s%2Fg%2F1hm30m44p?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -3704,25 +3624,24 @@
           <t>(0274) 391019</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr"/>
+      <c r="E77" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F77" t="n">
-        <v>4.7</v>
+        <v>-7.958267</v>
       </c>
       <c r="G77" t="n">
-        <v>-7.958267</v>
-      </c>
-      <c r="H77" t="n">
         <v>110.593083</v>
       </c>
-      <c r="I77" t="b">
-        <v>0</v>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMK+Negeri+2+Wonosari/@-7.9660953,110.3842565,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7bb337c3ce9955:0x557ead0baaada682!8m2!3d-7.9582669!4d110.5930825!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgEadm9jYXRpb25hbF90cmFpbmluZ19zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUXRiRXRUZUY5QlJSQULgAQD6AQQIABAv!16s%2Fg%2F1tsgz48x?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J77" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMK+Negeri+2+Wonosari/@-7.9660953,110.3842565,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7bb337c3ce9955:0x557ead0baaada682!8m2!3d-7.9582669!4d110.5930825!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgEadm9jYXRpb25hbF90cmFpbmluZ19zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUXRiRXRUZUY5QlJSQULgAQD6AQQIABAv!16s%2Fg%2F1tsgz48x?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
         <is>
           <t>4 minggu lalu</t>
         </is>
@@ -3749,25 +3668,24 @@
           <t>(0274) 391377</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr"/>
+      <c r="E78" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F78" t="n">
-        <v>4.8</v>
+        <v>-7.971484</v>
       </c>
       <c r="G78" t="n">
-        <v>-7.971484</v>
-      </c>
-      <c r="H78" t="n">
         <v>110.593853</v>
       </c>
-      <c r="I78" t="b">
-        <v>0</v>
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/MAN+1+Gunungkidul/@-7.9660953,110.3842565,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7bb36ac63f8e2f:0x773e68dc2a808114!8m2!3d-7.9714839!4d110.5938527!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgESc2VuaW9yX2hpZ2hfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU50YWpWSE9ESkJSUkFC4AEA-gEECCYQDw!16s%2Fg%2F1hm23xw9b?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J78" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/MAN+1+Gunungkidul/@-7.9660953,110.3842565,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7bb36ac63f8e2f:0x773e68dc2a808114!8m2!3d-7.9714839!4d110.5938527!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgESc2VuaW9yX2hpZ2hfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU50YWpWSE9ESkJSUkFC4AEA-gEECCYQDw!16s%2Fg%2F1hm23xw9b?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
@@ -3794,25 +3712,24 @@
           <t>(0274) 3950122</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr"/>
+      <c r="E79" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F79" t="n">
-        <v>4.7</v>
+        <v>-7.970717</v>
       </c>
       <c r="G79" t="n">
-        <v>-7.970717</v>
-      </c>
-      <c r="H79" t="n">
         <v>110.717549</v>
       </c>
-      <c r="I79" t="b">
-        <v>0</v>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMK+Muhammadiyah+Ponjong/@-7.9660953,110.3842565,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7bca9c6ab79bc9:0xcab1d15efbe39e77!8m2!3d-7.9707171!4d110.7175488!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgEadm9jYXRpb25hbF90cmFpbmluZ19zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUkNjbVpRZGtsQkVBReABAPoBBAgAECo!16s%2Fg%2F1hm3t58cr?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J79" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMK+Muhammadiyah+Ponjong/@-7.9660953,110.3842565,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7bca9c6ab79bc9:0xcab1d15efbe39e77!8m2!3d-7.9707171!4d110.7175488!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgEadm9jYXRpb25hbF90cmFpbmluZ19zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUkNjbVpRZGtsQkVBReABAPoBBAgAECo!16s%2Fg%2F1hm3t58cr?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -3839,25 +3756,24 @@
           <t>(0274) 391991</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr"/>
+      <c r="E80" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F80" t="n">
-        <v>4.7</v>
+        <v>-7.967672</v>
       </c>
       <c r="G80" t="n">
-        <v>-7.967672</v>
-      </c>
-      <c r="H80" t="n">
         <v>110.593112</v>
       </c>
-      <c r="I80" t="b">
-        <v>0</v>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMK+Yappi+Wonosari+Gunungkidul/@-7.9660953,110.3842565,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7bb34078b07db5:0xc95cbf427dc6460e!8m2!3d-7.9676717!4d110.5931123!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgEadm9jYXRpb25hbF90cmFpbmluZ19zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUTJkSFJUUVRaM1JSQULgAQD6AQQIABBB!16s%2Fg%2F11g69w9qd9?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J80" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMK+Yappi+Wonosari+Gunungkidul/@-7.9660953,110.3842565,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7bb34078b07db5:0xc95cbf427dc6460e!8m2!3d-7.9676717!4d110.5931123!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgEadm9jYXRpb25hbF90cmFpbmluZ19zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUTJkSFJUUVRaM1JSQULgAQD6AQQIABBB!16s%2Fg%2F11g69w9qd9?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr">
         <is>
           <t>3 minggu lalu</t>
         </is>
@@ -3880,25 +3796,24 @@
           <t>0878-3812-3057</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr"/>
+      <c r="E81" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F81" t="n">
-        <v>4.4</v>
+        <v>-7.839936</v>
       </c>
       <c r="G81" t="n">
-        <v>-7.839936</v>
-      </c>
-      <c r="H81" t="n">
         <v>110.701831</v>
       </c>
-      <c r="I81" t="b">
-        <v>0</v>
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMK+(SMEA)+Sanjaya+Gunungkidul/@-7.9660953,110.3842565,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7a49dd69e96b27:0xd9199b7e6644a61a!8m2!3d-7.8399359!4d110.7018312!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgEadm9jYXRpb25hbF90cmFpbmluZ19zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTXRNbU51V0dwblJSQULgAQD6AQQIABAa!16s%2Fg%2F12q4rktrh?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J81" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMK+(SMEA)+Sanjaya+Gunungkidul/@-7.9660953,110.3842565,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7a49dd69e96b27:0xd9199b7e6644a61a!8m2!3d-7.8399359!4d110.7018312!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgEadm9jYXRpb25hbF90cmFpbmluZ19zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTXRNbU51V0dwblJSQULgAQD6AQQIABAa!16s%2Fg%2F12q4rktrh?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -3917,25 +3832,24 @@
       </c>
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr"/>
-      <c r="E82" t="inlineStr"/>
+      <c r="E82" t="n">
+        <v>5</v>
+      </c>
       <c r="F82" t="n">
-        <v>5</v>
+        <v>-7.998308</v>
       </c>
       <c r="G82" t="n">
-        <v>-7.998308</v>
-      </c>
-      <c r="H82" t="n">
         <v>110.652795</v>
       </c>
-      <c r="I82" t="b">
-        <v>0</v>
+      <c r="H82" t="b">
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+LHI+gunung+kidul/@-7.9660953,110.3842565,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7bb50017a600ed:0xd808d237fbfce841!8m2!3d-7.9983078!4d110.6527953!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgELaGlnaF9zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTklOV0Y2VmpWblJSQULgAQD6AQQIABA_!16s%2Fg%2F11w1ljvpdz?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J82" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+LHI+gunung+kidul/@-7.9660953,110.3842565,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7bb50017a600ed:0xd808d237fbfce841!8m2!3d-7.9983078!4d110.6527953!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgELaGlnaF9zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTklOV0Y2VmpWblJSQULgAQD6AQQIABA_!16s%2Fg%2F11w1ljvpdz?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -3962,25 +3876,24 @@
           <t>(0274) 391054</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr"/>
+      <c r="E83" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F83" t="n">
-        <v>4.7</v>
+        <v>-7.967051</v>
       </c>
       <c r="G83" t="n">
-        <v>-7.967051</v>
-      </c>
-      <c r="H83" t="n">
         <v>110.600267</v>
       </c>
-      <c r="I83" t="b">
-        <v>0</v>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMK+Negeri+1+Wonosari/@-7.9660953,110.3842565,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7bb341819b6515:0x684c8c707ef4b12b!8m2!3d-7.9670515!4d110.6002665!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgEadm9jYXRpb25hbF90cmFpbmluZ19zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUjFka3RITW5CM1JSQULgAQD6AQQIABAl!16s%2Fg%2F1tfn5ncr?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J83" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMK+Negeri+1+Wonosari/@-7.9660953,110.3842565,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7bb341819b6515:0x684c8c707ef4b12b!8m2!3d-7.9670515!4d110.6002665!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgEadm9jYXRpb25hbF90cmFpbmluZ19zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUjFka3RITW5CM1JSQULgAQD6AQQIABAl!16s%2Fg%2F1tfn5ncr?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -4007,25 +3920,24 @@
           <t>0819-0377-7370</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr"/>
+      <c r="E84" t="n">
+        <v>5</v>
+      </c>
       <c r="F84" t="n">
-        <v>5</v>
+        <v>-7.867939</v>
       </c>
       <c r="G84" t="n">
-        <v>-7.867939</v>
-      </c>
-      <c r="H84" t="n">
         <v>110.620132</v>
       </c>
-      <c r="I84" t="b">
-        <v>0</v>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/MA+Ma'arif+Nglipar/@-7.9660953,110.3842565,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7a4bfe544b7677:0x4b4999723940e255!8m2!3d-7.8679395!4d110.6201322!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgEGc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5sZUdSSE5XWlJFQUXgAQD6AQQIABAX!16s%2Fg%2F11cjj089zd?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J84" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/MA+Ma'arif+Nglipar/@-7.9660953,110.3842565,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7a4bfe544b7677:0x4b4999723940e255!8m2!3d-7.8679395!4d110.6201322!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgEGc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5sZUdSSE5XWlJFQUXgAQD6AQQIABAX!16s%2Fg%2F11cjj089zd?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -4048,25 +3960,24 @@
           <t>0811-2519-173</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr"/>
+      <c r="E85" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F85" t="n">
-        <v>4.7</v>
+        <v>-8.015815</v>
       </c>
       <c r="G85" t="n">
-        <v>-8.015815</v>
-      </c>
-      <c r="H85" t="n">
         <v>110.735064</v>
       </c>
-      <c r="I85" t="b">
-        <v>0</v>
+      <c r="H85" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMK+Negeri+1+Ponjong/@-7.9660953,110.3842565,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7bca10943d464b:0xe62eca065325aff9!8m2!3d-8.0158154!4d110.7350642!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgEadm9jYXRpb25hbF90cmFpbmluZ19zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTXdMVnAyTnpkQlJSQULgAQD6AQQIABAo!16s%2Fg%2F1pzszh0j9?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J85" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMK+Negeri+1+Ponjong/@-7.9660953,110.3842565,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7bca10943d464b:0xe62eca065325aff9!8m2!3d-8.0158154!4d110.7350642!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgEadm9jYXRpb25hbF90cmFpbmluZ19zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTXdMVnAyTnpkQlJSQULgAQD6AQQIABAo!16s%2Fg%2F1pzszh0j9?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -4086,22 +3997,21 @@
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr"/>
-      <c r="F86" t="inlineStr"/>
+      <c r="F86" t="n">
+        <v>-7.97849</v>
+      </c>
       <c r="G86" t="n">
-        <v>-7.97849</v>
-      </c>
-      <c r="H86" t="n">
         <v>110.47763</v>
       </c>
-      <c r="I86" t="b">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr">
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SMA+Pembangunan+IV+Playen/@-7.97849,110.1892389,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7bad1ee2c9dda9:0xf39ff1e53cd6c5e3!8m2!3d-7.97849!4d110.47763!15sCg9TTUEgR3VudW5na2lkdWySARJzZW5pb3JfaGlnaF9zY2hvb2zgAQA!16s%2Fg%2F1hm3frcfq?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -4124,25 +4034,24 @@
           <t>(0274) 7113171</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr"/>
+      <c r="E87" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F87" t="n">
-        <v>4.6</v>
+        <v>-7.859663</v>
       </c>
       <c r="G87" t="n">
-        <v>-7.859663</v>
-      </c>
-      <c r="H87" t="n">
         <v>110.64152</v>
       </c>
-      <c r="I87" t="b">
-        <v>0</v>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMK+Negeri+1+Nglipar/@-7.8596633,110.3531291,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7a4c09e825f135:0xdeaf050c634b070!8m2!3d-7.8596633!4d110.6415202!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgEXZWR1Y2F0aW9uYWxfaW5zdGl0dXRpb26aASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUmxkemREVW05QlJSQULgAQD6AQQIABBG!16s%2Fg%2F11ckr6lfr8?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J87" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMK+Negeri+1+Nglipar/@-7.8596633,110.3531291,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7a4c09e825f135:0xdeaf050c634b070!8m2!3d-7.8596633!4d110.6415202!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgEXZWR1Y2F0aW9uYWxfaW5zdGl0dXRpb26aASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUmxkemREVW05QlJSQULgAQD6AQQIABBG!16s%2Fg%2F11ckr6lfr8?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -4165,25 +4074,24 @@
           <t>0878-3813-5197</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr"/>
+      <c r="E88" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F88" t="n">
-        <v>4.3</v>
+        <v>-7.939362</v>
       </c>
       <c r="G88" t="n">
-        <v>-7.939362</v>
-      </c>
-      <c r="H88" t="n">
         <v>110.770703</v>
       </c>
-      <c r="I88" t="b">
-        <v>0</v>
+      <c r="H88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+IKIP+VETERAN+III+TAMBAKROMO/@-7.8596633,110.3531291,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7a34d2b98944df:0xb765c0f16e566364!8m2!3d-7.9393625!4d110.7707031!15sCg9TTUEgR3VudW5na2lkdWySAQZzY2hvb2zgAQA!16s%2Fg%2F11c38hfw5y?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J88" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+IKIP+VETERAN+III+TAMBAKROMO/@-7.8596633,110.3531291,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7a34d2b98944df:0xb765c0f16e566364!8m2!3d-7.9393625!4d110.7707031!15sCg9TTUEgR3VudW5na2lkdWySAQZzY2hvb2zgAQA!16s%2Fg%2F11c38hfw5y?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K88" t="inlineStr">
         <is>
           <t>3 hari lalu</t>
         </is>
@@ -4210,25 +4118,24 @@
           <t>0878-3950-3800</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr"/>
+      <c r="E89" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F89" t="n">
-        <v>4.5</v>
+        <v>-7.976624</v>
       </c>
       <c r="G89" t="n">
-        <v>-7.976624</v>
-      </c>
-      <c r="H89" t="n">
         <v>110.707454</v>
       </c>
-      <c r="I89" t="b">
-        <v>0</v>
+      <c r="H89" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+BAITUL+QURAN+YOGYAKARTA/@-7.8596633,110.3531291,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7bb55b232ad85d:0x7fcbaf4899b401de!8m2!3d-7.9766242!4d110.7074544!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgEGc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5DZW1GVFFUbDNSUkFC4AEA-gEECAAQPw!16s%2Fg%2F11k2mprcs4?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J89" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+BAITUL+QURAN+YOGYAKARTA/@-7.8596633,110.3531291,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7bb55b232ad85d:0x7fcbaf4899b401de!8m2!3d-7.9766242!4d110.7074544!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgEGc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5DZW1GVFFUbDNSUkFC4AEA-gEECAAQPw!16s%2Fg%2F11k2mprcs4?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -4251,25 +4158,24 @@
           <t>0819-0416-4841</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr"/>
+      <c r="E90" t="n">
+        <v>5</v>
+      </c>
       <c r="F90" t="n">
-        <v>5</v>
+        <v>-7.943946</v>
       </c>
       <c r="G90" t="n">
-        <v>-7.943946</v>
-      </c>
-      <c r="H90" t="n">
         <v>110.553917</v>
       </c>
-      <c r="I90" t="b">
-        <v>0</v>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Pembangunan+4+Playen/@-7.8596633,110.3531291,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7a4d31041bc153:0xa20f75f2733c3f89!8m2!3d-7.9439461!4d110.5539172!15sCg9TTUEgR3VudW5na2lkdWySAQZzY2hvb2zgAQA!16s%2Fg%2F11f3xg69hd?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J90" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Pembangunan+4+Playen/@-7.8596633,110.3531291,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7a4d31041bc153:0xa20f75f2733c3f89!8m2!3d-7.9439461!4d110.5539172!15sCg9TTUEgR3VudW5na2lkdWySAQZzY2hvb2zgAQA!16s%2Fg%2F11f3xg69hd?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K90" t="inlineStr">
         <is>
           <t>5 tahun lalu</t>
         </is>
@@ -4296,25 +4202,24 @@
           <t>0813-1148-6884</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr"/>
+      <c r="E91" t="n">
+        <v>5</v>
+      </c>
       <c r="F91" t="n">
-        <v>5</v>
+        <v>-7.922977</v>
       </c>
       <c r="G91" t="n">
-        <v>-7.922977</v>
-      </c>
-      <c r="H91" t="n">
         <v>110.548502</v>
       </c>
-      <c r="I91" t="b">
-        <v>0</v>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Buahati+Islamic+School+Yogyakarta/@-7.8596633,110.3531291,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7a4d1b9235e98f:0x813bc7d69c05397e!8m2!3d-7.9229768!4d110.5485018!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgESc2VuaW9yX2hpZ2hfc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU53Y0dGUGNHWm5FQUXgAQD6AQQIABA3!16s%2Fg%2F11n1jfb73k?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J91" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Buahati+Islamic+School+Yogyakarta/@-7.8596633,110.3531291,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7a4d1b9235e98f:0x813bc7d69c05397e!8m2!3d-7.9229768!4d110.5485018!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgESc2VuaW9yX2hpZ2hfc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU53Y0dGUGNHWm5FQUXgAQD6AQQIABA3!16s%2Fg%2F11n1jfb73k?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K91" t="inlineStr">
         <is>
           <t>6 hari lalu</t>
         </is>
@@ -4337,25 +4242,24 @@
           <t>(0274) 2910458</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr"/>
+      <c r="E92" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F92" t="n">
-        <v>4.5</v>
+        <v>-7.966595</v>
       </c>
       <c r="G92" t="n">
-        <v>-7.966595</v>
-      </c>
-      <c r="H92" t="n">
         <v>110.721197</v>
       </c>
-      <c r="I92" t="b">
-        <v>0</v>
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMK+MA'ARIF+PONJONG/@-7.8596633,110.3531291,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7bcb1cecc75263:0x75ac2a1bd356f916!8m2!3d-7.9665952!4d110.7211972!15sCg9TTUEgR3VudW5na2lkdWySARp2b2NhdGlvbmFsX3RyYWluaW5nX3NjaG9vbOABAA!16s%2Fg%2F1hm316p3t?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J92" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMK+MA'ARIF+PONJONG/@-7.8596633,110.3531291,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7bcb1cecc75263:0x75ac2a1bd356f916!8m2!3d-7.9665952!4d110.7211972!15sCg9TTUEgR3VudW5na2lkdWySARp2b2NhdGlvbmFsX3RyYWluaW5nX3NjaG9vbOABAA!16s%2Fg%2F1hm316p3t?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K92" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -4382,25 +4286,24 @@
           <t>(0274) 7101233</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr"/>
+      <c r="E93" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F93" t="n">
-        <v>4.4</v>
+        <v>-7.844133</v>
       </c>
       <c r="G93" t="n">
-        <v>-7.844133</v>
-      </c>
-      <c r="H93" t="n">
         <v>110.592678</v>
       </c>
-      <c r="I93" t="b">
-        <v>0</v>
+      <c r="H93" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMKN+1+Gedang+Sari/@-7.8596633,110.3531291,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7a4ee862acd561:0x50d67e81497bd112!8m2!3d-7.8441334!4d110.5926784!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgEadm9jYXRpb25hbF90cmFpbmluZ19zY2hvb2zgAQA!16s%2Fg%2F1hm5vsww8?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J93" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMKN+1+Gedang+Sari/@-7.8596633,110.3531291,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7a4ee862acd561:0x50d67e81497bd112!8m2!3d-7.8441334!4d110.5926784!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgEadm9jYXRpb25hbF90cmFpbmluZ19zY2hvb2zgAQA!16s%2Fg%2F1hm5vsww8?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K93" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -4423,25 +4326,24 @@
           <t>(0274) 391158</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr"/>
+      <c r="E94" t="n">
+        <v>5</v>
+      </c>
       <c r="F94" t="n">
-        <v>5</v>
+        <v>-7.969995</v>
       </c>
       <c r="G94" t="n">
-        <v>-7.969995</v>
-      </c>
-      <c r="H94" t="n">
         <v>110.594184</v>
       </c>
-      <c r="I94" t="b">
-        <v>0</v>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Perpustakaan+SMA+Negeri+2+Wonosari+Gunungkidul+Yogyakarta/@-7.8596633,110.3531291,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7bb344079d6841:0xfec2dbcce9825edc!8m2!3d-7.9699949!4d110.5941843!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgEHbGlicmFyeZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOT05EbHBVbkJSUlJBQuABAPoBBAgAEBg!16s%2Fg%2F1pzq_63sd?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J94" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Perpustakaan+SMA+Negeri+2+Wonosari+Gunungkidul+Yogyakarta/@-7.8596633,110.3531291,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7bb344079d6841:0xfec2dbcce9825edc!8m2!3d-7.9699949!4d110.5941843!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgEHbGlicmFyeZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOT05EbHBVbkJSUlJBQuABAPoBBAgAEBg!16s%2Fg%2F1pzq_63sd?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K94" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -4468,25 +4370,24 @@
           <t>(0274) 2910458</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr"/>
+      <c r="E95" t="n">
+        <v>3</v>
+      </c>
       <c r="F95" t="n">
-        <v>3</v>
+        <v>-7.966552</v>
       </c>
       <c r="G95" t="n">
-        <v>-7.966552</v>
-      </c>
-      <c r="H95" t="n">
         <v>110.721248</v>
       </c>
-      <c r="I95" t="b">
-        <v>0</v>
+      <c r="H95" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Sekolah+Menengah+Atas+(SMA)+Pembangunan+3+Ponjong/@-7.8596633,110.3531291,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7bca9371124deb:0x79767a595a4b5599!8m2!3d-7.9665523!4d110.7212476!15sCg9TTUEgR3VudW5na2lkdWySAQtoaWdoX3NjaG9vbOABAA!16s%2Fg%2F1pzxc4kwx?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J95" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Sekolah+Menengah+Atas+(SMA)+Pembangunan+3+Ponjong/@-7.8596633,110.3531291,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7bca9371124deb:0x79767a595a4b5599!8m2!3d-7.9665523!4d110.7212476!15sCg9TTUEgR3VudW5na2lkdWySAQtoaWdoX3NjaG9vbOABAA!16s%2Fg%2F1pzxc4kwx?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K95" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -4513,25 +4414,24 @@
           <t>0811-263-068</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr"/>
+      <c r="E96" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F96" t="n">
-        <v>4.4</v>
+        <v>-8.047480999999999</v>
       </c>
       <c r="G96" t="n">
-        <v>-8.047480999999999</v>
-      </c>
-      <c r="H96" t="n">
         <v>110.510643</v>
       </c>
-      <c r="I96" t="b">
-        <v>0</v>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMK+Negeri+1+Saptosari/@-8.0474814,110.2222517,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7bac1b64d2a863:0x2d1a36a2f9246f7e!8m2!3d-8.0474814!4d110.5106428!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgEadm9jYXRpb25hbF90cmFpbmluZ19zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTkxlVmt6VEdKbkVBReABAPoBBAhtEEI!16s%2Fg%2F1pzt_wg3z?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J96" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMK+Negeri+1+Saptosari/@-8.0474814,110.2222517,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7bac1b64d2a863:0x2d1a36a2f9246f7e!8m2!3d-8.0474814!4d110.5106428!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgEadm9jYXRpb25hbF90cmFpbmluZ19zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTkxlVmt6VEdKbkVBReABAPoBBAhtEEI!16s%2Fg%2F1pzt_wg3z?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K96" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
@@ -4550,25 +4450,24 @@
       </c>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr"/>
-      <c r="E97" t="inlineStr"/>
+      <c r="E97" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F97" t="n">
-        <v>4.2</v>
+        <v>-8.078366000000001</v>
       </c>
       <c r="G97" t="n">
-        <v>-8.078366000000001</v>
-      </c>
-      <c r="H97" t="n">
         <v>110.624736</v>
       </c>
-      <c r="I97" t="b">
-        <v>0</v>
+      <c r="H97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMK+(SMEA)+Muhammadiyah+Tepus/@-8.0474814,110.2222517,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7bb72eec470333:0x870f1c3226938e44!8m2!3d-8.078366!4d110.6247363!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgEadm9jYXRpb25hbF90cmFpbmluZ19zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTTJNbEJ5ZHpGUlJSQULgAQD6AQQIABBA!16s%2Fg%2F1hm5t2wdr?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J97" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMK+(SMEA)+Muhammadiyah+Tepus/@-8.0474814,110.2222517,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7bb72eec470333:0x870f1c3226938e44!8m2!3d-8.078366!4d110.6247363!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgEadm9jYXRpb25hbF90cmFpbmluZ19zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTTJNbEJ5ZHpGUlJSQULgAQD6AQQIABBA!16s%2Fg%2F1hm5t2wdr?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K97" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -4595,25 +4494,24 @@
           <t>0858-6832-7509</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr"/>
+      <c r="E98" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F98" t="n">
-        <v>4.7</v>
+        <v>-7.940528</v>
       </c>
       <c r="G98" t="n">
-        <v>-7.940528</v>
-      </c>
-      <c r="H98" t="n">
         <v>110.553399</v>
       </c>
-      <c r="I98" t="b">
-        <v>0</v>
+      <c r="H98" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/MTs+Al+I'anah+Playen/@-8.0474814,110.2222517,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7a4d3e55555555:0x7c0d54a9d2b68b49!8m2!3d-7.9405276!4d110.5533992!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgEGc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJQZHpZMlYweFJFQUXgAQD6AQQIABAT!16s%2Fg%2F11bc7v37wf?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J98" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/MTs+Al+I'anah+Playen/@-8.0474814,110.2222517,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7a4d3e55555555:0x7c0d54a9d2b68b49!8m2!3d-7.9405276!4d110.5533992!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgEGc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJQZHpZMlYweFJFQUXgAQD6AQQIABAT!16s%2Fg%2F11bc7v37wf?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K98" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -4636,25 +4534,24 @@
           <t>(0272) 551584</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr"/>
+      <c r="E99" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F99" t="n">
-        <v>4.6</v>
+        <v>-7.606937</v>
       </c>
       <c r="G99" t="n">
-        <v>-7.606937</v>
-      </c>
-      <c r="H99" t="n">
         <v>110.706551</v>
       </c>
-      <c r="I99" t="b">
-        <v>0</v>
+      <c r="H99" t="b">
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Negeri+1+Wonosari/@-7.606937,110.4181599,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7a5ad130acdc83:0x60dda90ba43eb961!8m2!3d-7.606937!4d110.706551!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgESc2VuaW9yX2hpZ2hfc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU0yZDJaNk5VRlJFQUXgAQD6AQQIABBB!16s%2Fg%2F1hm3dbtmt?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J99" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Negeri+1+Wonosari/@-7.606937,110.4181599,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7a5ad130acdc83:0x60dda90ba43eb961!8m2!3d-7.606937!4d110.706551!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgESc2VuaW9yX2hpZ2hfc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU0yZDJaNk5VRlJFQUXgAQD6AQQIABBB!16s%2Fg%2F1hm3dbtmt?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K99" t="inlineStr">
         <is>
           <t>4 minggu lalu</t>
         </is>
@@ -4677,25 +4574,24 @@
           <t>(0274) 522609</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr"/>
+      <c r="E100" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F100" t="n">
-        <v>4.8</v>
+        <v>-7.969936</v>
       </c>
       <c r="G100" t="n">
-        <v>-7.969936</v>
-      </c>
-      <c r="H100" t="n">
         <v>110.716946</v>
       </c>
-      <c r="I100" t="b">
-        <v>0</v>
+      <c r="H100" t="b">
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMU+Muh+Ponjong/@-7.9699359,110.4285548,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7bb55f25b392fb:0xe145948724e4cb3a!8m2!3d-7.9699359!4d110.7169459!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgELaGlnaF9zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTmxMVTlYU2pOM1JSQULgAQD6AQQIABA0!16s%2Fg%2F1pzwkx2py?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J100" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMU+Muh+Ponjong/@-7.9699359,110.4285548,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7bb55f25b392fb:0xe145948724e4cb3a!8m2!3d-7.9699359!4d110.7169459!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgELaGlnaF9zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTmxMVTlYU2pOM1JSQULgAQD6AQQIABA0!16s%2Fg%2F1pzwkx2py?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K100" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -4722,25 +4618,24 @@
           <t>(0274) 392504</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr"/>
+      <c r="E101" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F101" t="n">
-        <v>4.6</v>
+        <v>-7.945443</v>
       </c>
       <c r="G101" t="n">
-        <v>-7.945443</v>
-      </c>
-      <c r="H101" t="n">
         <v>110.557306</v>
       </c>
-      <c r="I101" t="b">
-        <v>0</v>
+      <c r="H101" t="b">
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMK+Muhammadiyah+2+Playen/@-7.945443,110.2689149,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7a4d2e029d38ef:0x94dee692dbb1bf1c!8m2!3d-7.945443!4d110.557306!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgEadm9jYXRpb25hbF90cmFpbmluZ19zY2hvb2zgAQA!16s%2Fg%2F1hm5jdk0h?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J101" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMK+Muhammadiyah+2+Playen/@-7.945443,110.2689149,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7a4d2e029d38ef:0x94dee692dbb1bf1c!8m2!3d-7.945443!4d110.557306!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgEadm9jYXRpb25hbF90cmFpbmluZ19zY2hvb2zgAQA!16s%2Fg%2F1hm5jdk0h?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K101" t="inlineStr">
         <is>
           <t>9 bulan lalu</t>
         </is>
@@ -4760,22 +4655,21 @@
       <c r="C102" t="inlineStr"/>
       <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr"/>
-      <c r="F102" t="inlineStr"/>
+      <c r="F102" t="n">
+        <v>-7.937172</v>
+      </c>
       <c r="G102" t="n">
-        <v>-7.937172</v>
-      </c>
-      <c r="H102" t="n">
         <v>110.578157</v>
       </c>
-      <c r="I102" t="b">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr">
+      <c r="H102" t="b">
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SMA+Logandeng/@-7.945443,110.2689149,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7a4d0034fea29d:0x13f5ca54bdeeb144!8m2!3d-7.9371723!4d110.5781567!15sCg9TTUEgR3VudW5na2lkdWySAQtoaWdoX3NjaG9vbOABAA!16s%2Fg%2F11w4l4dctj?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -4794,25 +4688,24 @@
           <t>(0274) 391373</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr"/>
+      <c r="E103" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F103" t="n">
-        <v>4.9</v>
+        <v>-7.954415</v>
       </c>
       <c r="G103" t="n">
-        <v>-7.954415</v>
-      </c>
-      <c r="H103" t="n">
         <v>110.590059</v>
       </c>
-      <c r="I103" t="b">
-        <v>0</v>
+      <c r="H103" t="b">
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMK+45+WONOSARI/@-7.945443,110.2689149,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7bb335d3200403:0xafe9d9c96a257e8f!8m2!3d-7.9544146!4d110.590059!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgEadm9jYXRpb25hbF90cmFpbmluZ19zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTlhOazR6T0ZSbkVBReABAPoBBAgAEBY!16s%2Fg%2F11f1cq18v5?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J103" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMK+45+WONOSARI/@-7.945443,110.2689149,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7bb335d3200403:0xafe9d9c96a257e8f!8m2!3d-7.9544146!4d110.590059!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgEadm9jYXRpb25hbF90cmFpbmluZ19zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTlhOazR6T0ZSbkVBReABAPoBBAgAEBY!16s%2Fg%2F11f1cq18v5?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K103" t="inlineStr">
         <is>
           <t>7 bulan lalu</t>
         </is>
@@ -4831,25 +4724,24 @@
       </c>
       <c r="C104" t="inlineStr"/>
       <c r="D104" t="inlineStr"/>
-      <c r="E104" t="inlineStr"/>
+      <c r="E104" t="n">
+        <v>3.5</v>
+      </c>
       <c r="F104" t="n">
-        <v>3.5</v>
+        <v>-8.082141999999999</v>
       </c>
       <c r="G104" t="n">
-        <v>-8.082141999999999</v>
-      </c>
-      <c r="H104" t="n">
         <v>110.763328</v>
       </c>
-      <c r="I104" t="b">
-        <v>0</v>
+      <c r="H104" t="b">
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMK+Bhina+Karya+1+Rongkop/@-8.0821419,110.4749369,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7bc8f4ff39013d:0x979aa001e720ca23!8m2!3d-8.0821419!4d110.763328!15sCg9TTUEgR3VudW5na2lkdWySARp2b2NhdGlvbmFsX3RyYWluaW5nX3NjaG9vbOABAA!16s%2Fg%2F1pzw68w71?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J104" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMK+Bhina+Karya+1+Rongkop/@-8.0821419,110.4749369,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7bc8f4ff39013d:0x979aa001e720ca23!8m2!3d-8.0821419!4d110.763328!15sCg9TTUEgR3VudW5na2lkdWySARp2b2NhdGlvbmFsX3RyYWluaW5nX3NjaG9vbOABAA!16s%2Fg%2F1pzw68w71?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K104" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -4876,25 +4768,24 @@
           <t>(0274) 391298</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr"/>
+      <c r="E105" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F105" t="n">
-        <v>4.7</v>
+        <v>-7.951744</v>
       </c>
       <c r="G105" t="n">
-        <v>-7.951744</v>
-      </c>
-      <c r="H105" t="n">
         <v>110.587301</v>
       </c>
-      <c r="I105" t="b">
-        <v>0</v>
+      <c r="H105" t="b">
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMK+Muhammadiyah+1+Playen/@-7.9517441,110.2989102,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7a4cdbaaac76b5:0x851eca431cde8d0!8m2!3d-7.9517441!4d110.5873013!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgEadm9jYXRpb25hbF90cmFpbmluZ19zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUjZlalZ5TkRGUlJSQULgAQD6AQQIABAz!16s%2Fg%2F1tl5_h9s?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J105" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMK+Muhammadiyah+1+Playen/@-7.9517441,110.2989102,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7a4cdbaaac76b5:0x851eca431cde8d0!8m2!3d-7.9517441!4d110.5873013!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgEadm9jYXRpb25hbF90cmFpbmluZ19zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUjZlalZ5TkRGUlJSQULgAQD6AQQIABAz!16s%2Fg%2F1tl5_h9s?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K105" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -4921,25 +4812,24 @@
           <t>(0274) 496040</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr"/>
+      <c r="E106" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F106" t="n">
-        <v>4.6</v>
+        <v>-7.75753</v>
       </c>
       <c r="G106" t="n">
-        <v>-7.75753</v>
-      </c>
-      <c r="H106" t="n">
         <v>110.483543</v>
       </c>
-      <c r="I106" t="b">
-        <v>0</v>
+      <c r="H106" t="b">
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Negeri+1+Kalasan/@-7.9517441,110.2989102,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7a5afaefe4597b:0x38703350fa1fd488!8m2!3d-7.75753!4d110.483543!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgESc2VuaW9yX2hpZ2hfc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJYY0dGUFdVTlJFQUXgAQD6AQQIABAx!16s%2Fg%2F1hm63msk5?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J106" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Negeri+1+Kalasan/@-7.9517441,110.2989102,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7a5afaefe4597b:0x38703350fa1fd488!8m2!3d-7.75753!4d110.483543!15sCg9TTUEgR3VudW5na2lkdWxaESIPc21hIGd1bnVuZ2tpZHVskgESc2VuaW9yX2hpZ2hfc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJYY0dGUFdVTlJFQUXgAQD6AQQIABAx!16s%2Fg%2F1hm63msk5?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K106" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -4959,22 +4849,21 @@
       <c r="C107" t="inlineStr"/>
       <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr"/>
-      <c r="F107" t="inlineStr"/>
+      <c r="F107" t="n">
+        <v>-7.937278</v>
+      </c>
       <c r="G107" t="n">
-        <v>-7.937278</v>
-      </c>
-      <c r="H107" t="n">
         <v>110.604528</v>
       </c>
-      <c r="I107" t="b">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr">
+      <c r="H107" t="b">
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/TIM+Pengembang+Dit.+SMA/@-7.9517441,110.2989102,11z/data=!4m10!1m2!2m1!1sSMA+Gunungkidul!3m6!1s0x2e7a4d9394aed297:0x6d2807c4537889a4!8m2!3d-7.9372778!4d110.6045278!15sCg9TTUEgR3VudW5na2lkdWySAQtoaWdoX3NjaG9vbOABAA!16s%2Fg%2F11svny5q4h?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -4988,16 +4877,15 @@
       <c r="E108" t="inlineStr"/>
       <c r="F108" t="inlineStr"/>
       <c r="G108" t="inlineStr"/>
-      <c r="H108" t="inlineStr"/>
-      <c r="I108" t="b">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr">
+      <c r="H108" t="b">
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/search/SMA+Kota+Yogyakarta/@-7.8053374,110.3684985,15z?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -5020,25 +4908,24 @@
           <t>(0274) 375146</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr"/>
+      <c r="E109" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F109" t="n">
-        <v>4.7</v>
+        <v>-7.807542</v>
       </c>
       <c r="G109" t="n">
-        <v>-7.807542</v>
-      </c>
-      <c r="H109" t="n">
         <v>110.370686</v>
       </c>
-      <c r="I109" t="b">
-        <v>0</v>
+      <c r="H109" t="b">
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Santa+Maria+Yogyakarta/@-7.807542,110.3526616,15z/data=!4m10!1m2!2m1!1sSMA+Kota+Yogyakarta!3m6!1s0x2e7a579b39964b65:0xb1b8473c13abdedf!8m2!3d-7.807542!4d110.370686!15sChNTTUEgS290YSBZb2d5YWthcnRhkgESc2VuaW9yX2hpZ2hfc2Nob29s4AEA!16s%2Fg%2F1hd__fn3h?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J109" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Santa+Maria+Yogyakarta/@-7.807542,110.3526616,15z/data=!4m10!1m2!2m1!1sSMA+Kota+Yogyakarta!3m6!1s0x2e7a579b39964b65:0xb1b8473c13abdedf!8m2!3d-7.807542!4d110.370686!15sChNTTUEgS290YSBZb2d5YWthcnRhkgESc2VuaW9yX2hpZ2hfc2Nob29s4AEA!16s%2Fg%2F1hd__fn3h?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K109" t="inlineStr">
         <is>
           <t>6 hari lalu</t>
         </is>
@@ -5065,25 +4952,24 @@
           <t>(0274) 377740</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr"/>
+      <c r="E110" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F110" t="n">
-        <v>4.7</v>
+        <v>-7.813797</v>
       </c>
       <c r="G110" t="n">
-        <v>-7.813797</v>
-      </c>
-      <c r="H110" t="n">
         <v>110.358629</v>
       </c>
-      <c r="I110" t="b">
-        <v>0</v>
+      <c r="H110" t="b">
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Negeri+7+Yogyakarta/@-7.8137975,110.3406049,15z/data=!4m10!1m2!2m1!1sSMA+Kota+Yogyakarta!3m6!1s0x2e7a5794390209d7:0x6ce98bf02968b155!8m2!3d-7.8137975!4d110.3586293!15sChNTTUEgS290YSBZb2d5YWthcnRhkgESc2VuaW9yX2hpZ2hfc2Nob29s4AEA!16s%2Fg%2F120l32q1?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J110" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Negeri+7+Yogyakarta/@-7.8137975,110.3406049,15z/data=!4m10!1m2!2m1!1sSMA+Kota+Yogyakarta!3m6!1s0x2e7a5794390209d7:0x6ce98bf02968b155!8m2!3d-7.8137975!4d110.3586293!15sChNTTUEgS290YSBZb2d5YWthcnRhkgESc2VuaW9yX2hpZ2hfc2Nob29s4AEA!16s%2Fg%2F120l32q1?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K110" t="inlineStr">
         <is>
           <t>3 minggu lalu</t>
         </is>
@@ -5110,25 +4996,24 @@
           <t>(0274) 562458</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr"/>
+      <c r="E111" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F111" t="n">
-        <v>4.7</v>
+        <v>-7.797812</v>
       </c>
       <c r="G111" t="n">
-        <v>-7.797812</v>
-      </c>
-      <c r="H111" t="n">
         <v>110.362783</v>
       </c>
-      <c r="I111" t="b">
-        <v>0</v>
+      <c r="H111" t="b">
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Negeri+10+Yogyakarta/@-7.7978118,110.3447583,15z/data=!4m10!1m2!2m1!1sSMA+Kota+Yogyakarta!3m6!1s0x2e7a57889ec1f61b:0x3d6c08e64810adce!8m2!3d-7.7978118!4d110.3627827!15sChNTTUEgS290YSBZb2d5YWthcnRhkgESc2VuaW9yX2hpZ2hfc2Nob29s4AEA!16s%2Fg%2F11gzg1b1m?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J111" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Negeri+10+Yogyakarta/@-7.7978118,110.3447583,15z/data=!4m10!1m2!2m1!1sSMA+Kota+Yogyakarta!3m6!1s0x2e7a57889ec1f61b:0x3d6c08e64810adce!8m2!3d-7.7978118!4d110.3627827!15sChNTTUEgS290YSBZb2d5YWthcnRhkgESc2VuaW9yX2hpZ2hfc2Nob29s4AEA!16s%2Fg%2F11gzg1b1m?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K111" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -5155,25 +5040,24 @@
           <t>(0274) 565898</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr"/>
+      <c r="E112" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F112" t="n">
-        <v>4.5</v>
+        <v>-7.777117</v>
       </c>
       <c r="G112" t="n">
-        <v>-7.777117</v>
-      </c>
-      <c r="H112" t="n">
         <v>110.367941</v>
       </c>
-      <c r="I112" t="b">
-        <v>0</v>
+      <c r="H112" t="b">
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Negeri+11+Yogyakarta/@-7.777117,110.3499166,15z/data=!4m10!1m2!2m1!1sSMA+Kota+Yogyakarta!3m6!1s0x2e7a5837e8e7e9a3:0xb1ec7bd26428c2f2!8m2!3d-7.777117!4d110.367941!15sChNTTUEgS290YSBZb2d5YWthcnRhkgESc2VuaW9yX2hpZ2hfc2Nob29s4AEA!16s%2Fg%2F11b77_t2fd?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J112" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Negeri+11+Yogyakarta/@-7.777117,110.3499166,15z/data=!4m10!1m2!2m1!1sSMA+Kota+Yogyakarta!3m6!1s0x2e7a5837e8e7e9a3:0xb1ec7bd26428c2f2!8m2!3d-7.777117!4d110.367941!15sChNTTUEgS290YSBZb2d5YWthcnRhkgESc2VuaW9yX2hpZ2hfc2Nob29s4AEA!16s%2Fg%2F11b77_t2fd?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K112" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -5200,25 +5084,24 @@
           <t>(0274) 563647</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr"/>
+      <c r="E113" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F113" t="n">
-        <v>4.6</v>
+        <v>-7.778026</v>
       </c>
       <c r="G113" t="n">
-        <v>-7.778026</v>
-      </c>
-      <c r="H113" t="n">
         <v>110.353004</v>
       </c>
-      <c r="I113" t="b">
-        <v>0</v>
+      <c r="H113" t="b">
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Negeri+2+Yogyakarta/@-7.778026,110.3349796,15z/data=!4m10!1m2!2m1!1sSMA+Kota+Yogyakarta!3m6!1s0x2e7a58156b722617:0x6f3815e952da6a52!8m2!3d-7.778026!4d110.353004!15sChNTTUEgS290YSBZb2d5YWthcnRhkgESc2VuaW9yX2hpZ2hfc2Nob29s4AEA!16s%2Fg%2F121fx1xd?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J113" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Negeri+2+Yogyakarta/@-7.778026,110.3349796,15z/data=!4m10!1m2!2m1!1sSMA+Kota+Yogyakarta!3m6!1s0x2e7a58156b722617:0x6f3815e952da6a52!8m2!3d-7.778026!4d110.353004!15sChNTTUEgS290YSBZb2d5YWthcnRhkgESc2VuaW9yX2hpZ2hfc2Nob29s4AEA!16s%2Fg%2F121fx1xd?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K113" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -5245,25 +5128,24 @@
           <t>(0274) 513454</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr"/>
+      <c r="E114" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F114" t="n">
-        <v>4.7</v>
+        <v>-7.79974</v>
       </c>
       <c r="G114" t="n">
-        <v>-7.79974</v>
-      </c>
-      <c r="H114" t="n">
         <v>110.352539</v>
       </c>
-      <c r="I114" t="b">
-        <v>0</v>
+      <c r="H114" t="b">
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Negeri+1+Teladan+Yogyakarta/@-7.7997396,110.3345141,15z/data=!4m10!1m2!2m1!1sSMA+Kota+Yogyakarta!3m6!1s0x2e7a57f4fa62fdab:0x4d7d92f9032750f0!8m2!3d-7.7997396!4d110.3525385!15sChNTTUEgS290YSBZb2d5YWthcnRhkgESc2VuaW9yX2hpZ2hfc2Nob29s4AEA!16s%2Fg%2F1tf2p0y9?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J114" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Negeri+1+Teladan+Yogyakarta/@-7.7997396,110.3345141,15z/data=!4m10!1m2!2m1!1sSMA+Kota+Yogyakarta!3m6!1s0x2e7a57f4fa62fdab:0x4d7d92f9032750f0!8m2!3d-7.7997396!4d110.3525385!15sChNTTUEgS290YSBZb2d5YWthcnRhkgESc2VuaW9yX2hpZ2hfc2Nob29s4AEA!16s%2Fg%2F1tf2p0y9?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K114" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -5290,25 +5172,24 @@
           <t>(0274) 513335</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr"/>
+      <c r="E115" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F115" t="n">
-        <v>4.8</v>
+        <v>-7.78139</v>
       </c>
       <c r="G115" t="n">
-        <v>-7.78139</v>
-      </c>
-      <c r="H115" t="n">
         <v>110.373136</v>
       </c>
-      <c r="I115" t="b">
-        <v>0</v>
+      <c r="H115" t="b">
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMAN+6+Yogyakarta/@-7.78139,110.3551112,15z/data=!4m10!1m2!2m1!1sSMA+Kota+Yogyakarta!3m6!1s0x2e7a5833e6a843d9:0xdd1bba4944c75a25!8m2!3d-7.78139!4d110.3731356!15sChNTTUEgS290YSBZb2d5YWthcnRhkgESc2VuaW9yX2hpZ2hfc2Nob29s4AEA!16s%2Fg%2F1211pf_4?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J115" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMAN+6+Yogyakarta/@-7.78139,110.3551112,15z/data=!4m10!1m2!2m1!1sSMA+Kota+Yogyakarta!3m6!1s0x2e7a5833e6a843d9:0xdd1bba4944c75a25!8m2!3d-7.78139!4d110.3731356!15sChNTTUEgS290YSBZb2d5YWthcnRhkgESc2VuaW9yX2hpZ2hfc2Nob29s4AEA!16s%2Fg%2F1211pf_4?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K115" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -5335,25 +5216,24 @@
           <t>(0274) 513245</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr"/>
+      <c r="E116" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F116" t="n">
-        <v>4.5</v>
+        <v>-7.772021</v>
       </c>
       <c r="G116" t="n">
-        <v>-7.772021</v>
-      </c>
-      <c r="H116" t="n">
         <v>110.362579</v>
       </c>
-      <c r="I116" t="b">
-        <v>0</v>
+      <c r="H116" t="b">
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+NEGERI+4+Yogyakarta/@-7.7720215,110.3445545,15z/data=!4m10!1m2!2m1!1sSMA+Kota+Yogyakarta!3m6!1s0x2e7a5846eb229fa5:0x6ac5d3e1ccb99b1d!8m2!3d-7.7720215!4d110.3625789!15sChNTTUEgS290YSBZb2d5YWthcnRhkgESc2VuaW9yX2hpZ2hfc2Nob29s4AEA!16s%2Fg%2F121bwb96?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J116" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+NEGERI+4+Yogyakarta/@-7.7720215,110.3445545,15z/data=!4m10!1m2!2m1!1sSMA+Kota+Yogyakarta!3m6!1s0x2e7a5846eb229fa5:0x6ac5d3e1ccb99b1d!8m2!3d-7.7720215!4d110.3625789!15sChNTTUEgS290YSBZb2d5YWthcnRhkgESc2VuaW9yX2hpZ2hfc2Nob29s4AEA!16s%2Fg%2F121bwb96?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K116" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -5380,25 +5260,24 @@
           <t>(0274) 513493</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr"/>
+      <c r="E117" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F117" t="n">
-        <v>4.8</v>
+        <v>-7.80045</v>
       </c>
       <c r="G117" t="n">
-        <v>-7.80045</v>
-      </c>
-      <c r="H117" t="n">
         <v>110.395385</v>
       </c>
-      <c r="I117" t="b">
-        <v>0</v>
+      <c r="H117" t="b">
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Negeri+8+Yogyakarta/@-7.80045,110.3773606,15z/data=!4m10!1m2!2m1!1sSMA+Kota+Yogyakarta!3m6!1s0x2e7a57669d43fe55:0x75fae1bb400d4da5!8m2!3d-7.80045!4d110.395385!15sChNTTUEgS290YSBZb2d5YWthcnRhkgEGc2Nob29s4AEA!16s%2Fg%2F11_ygjs9g?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J117" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Negeri+8+Yogyakarta/@-7.80045,110.3773606,15z/data=!4m10!1m2!2m1!1sSMA+Kota+Yogyakarta!3m6!1s0x2e7a57669d43fe55:0x75fae1bb400d4da5!8m2!3d-7.80045!4d110.395385!15sChNTTUEgS290YSBZb2d5YWthcnRhkgEGc2Nob29s4AEA!16s%2Fg%2F11_ygjs9g?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K117" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -5425,25 +5304,24 @@
           <t>(0274) 370310</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr"/>
+      <c r="E118" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F118" t="n">
-        <v>4.9</v>
+        <v>-7.802219</v>
       </c>
       <c r="G118" t="n">
-        <v>-7.802219</v>
-      </c>
-      <c r="H118" t="n">
         <v>110.366639</v>
       </c>
-      <c r="I118" t="b">
-        <v>0</v>
+      <c r="H118" t="b">
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Pangudi+Luhur+St.+Yusup+Yogyakarta/@-7.802219,110.3486146,15z/data=!4m10!1m2!2m1!1sSMA+Kota+Yogyakarta!3m6!1s0x2e7a57880dd11379:0x3e3ea1f1734aa6b3!8m2!3d-7.802219!4d110.366639!15sChNTTUEgS290YSBZb2d5YWthcnRhkgESc2VuaW9yX2hpZ2hfc2Nob29s4AEA!16s%2Fg%2F121g71h4?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J118" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Pangudi+Luhur+St.+Yusup+Yogyakarta/@-7.802219,110.3486146,15z/data=!4m10!1m2!2m1!1sSMA+Kota+Yogyakarta!3m6!1s0x2e7a57880dd11379:0x3e3ea1f1734aa6b3!8m2!3d-7.802219!4d110.366639!15sChNTTUEgS290YSBZb2d5YWthcnRhkgESc2VuaW9yX2hpZ2hfc2Nob29s4AEA!16s%2Fg%2F121g71h4?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K118" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -5470,25 +5348,24 @@
           <t>(0274) 512856</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr"/>
+      <c r="E119" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F119" t="n">
-        <v>4.7</v>
+        <v>-7.786528</v>
       </c>
       <c r="G119" t="n">
-        <v>-7.786528</v>
-      </c>
-      <c r="H119" t="n">
         <v>110.373616</v>
       </c>
-      <c r="I119" t="b">
-        <v>0</v>
+      <c r="H119" t="b">
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMAN+3+Yogyakarta/@-7.7865276,110.3555915,15z/data=!4m10!1m2!2m1!1sSMA+Kota+Yogyakarta!3m6!1s0x2e7a582ded4e8f5d:0xe43a323a5f432dc5!8m2!3d-7.7865276!4d110.3736159!15sChNTTUEgS290YSBZb2d5YWthcnRhkgESc2VuaW9yX2hpZ2hfc2Nob29s4AEA!16s%2Fg%2F121thsgw?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J119" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMAN+3+Yogyakarta/@-7.7865276,110.3555915,15z/data=!4m10!1m2!2m1!1sSMA+Kota+Yogyakarta!3m6!1s0x2e7a582ded4e8f5d:0xe43a323a5f432dc5!8m2!3d-7.7865276!4d110.3736159!15sChNTTUEgS290YSBZb2d5YWthcnRhkgESc2VuaW9yX2hpZ2hfc2Nob29s4AEA!16s%2Fg%2F121thsgw?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K119" t="inlineStr">
         <is>
           <t>3 hari lalu</t>
         </is>
@@ -5515,25 +5392,24 @@
           <t>0821-8008-7076</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr"/>
+      <c r="E120" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F120" t="n">
-        <v>4.8</v>
+        <v>-7.793904</v>
       </c>
       <c r="G120" t="n">
-        <v>-7.793904</v>
-      </c>
-      <c r="H120" t="n">
         <v>110.382486</v>
       </c>
-      <c r="I120" t="b">
-        <v>0</v>
+      <c r="H120" t="b">
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+PIRI+1+Yogyakarta/@-7.7865276,110.3555915,15z/data=!4m10!1m2!2m1!1sSMA+Kota+Yogyakarta!3m6!1s0x2e7a59df912ba049:0xbdae2c4947f02d2!8m2!3d-7.793904!4d110.382486!15sChNTTUEgS290YSBZb2d5YWthcnRhkgESc2VuaW9yX2hpZ2hfc2Nob29s4AEA!16s%2Fg%2F11szsv46l5?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J120" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+PIRI+1+Yogyakarta/@-7.7865276,110.3555915,15z/data=!4m10!1m2!2m1!1sSMA+Kota+Yogyakarta!3m6!1s0x2e7a59df912ba049:0xbdae2c4947f02d2!8m2!3d-7.793904!4d110.382486!15sChNTTUEgS290YSBZb2d5YWthcnRhkgESc2VuaW9yX2hpZ2hfc2Nob29s4AEA!16s%2Fg%2F11szsv46l5?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K120" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
@@ -5560,25 +5436,24 @@
           <t>(0274) 374562</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr"/>
+      <c r="E121" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F121" t="n">
-        <v>4.9</v>
+        <v>-7.805457</v>
       </c>
       <c r="G121" t="n">
-        <v>-7.805457</v>
-      </c>
-      <c r="H121" t="n">
         <v>110.380415</v>
       </c>
-      <c r="I121" t="b">
-        <v>0</v>
+      <c r="H121" t="b">
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Taman+Madya+IP+Tamansiswa/@-7.8054574,110.3623901,15z/data=!4m10!1m2!2m1!1sSMA+Kota+Yogyakarta!3m6!1s0x2e7a577826e1f807:0x40dc172d1ffcdc59!8m2!3d-7.8054574!4d110.3804145!15sChNTTUEgS290YSBZb2d5YWthcnRhkgESc2VuaW9yX2hpZ2hfc2Nob29s4AEA!16s%2Fg%2F1hm6g9l39?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J121" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Taman+Madya+IP+Tamansiswa/@-7.8054574,110.3623901,15z/data=!4m10!1m2!2m1!1sSMA+Kota+Yogyakarta!3m6!1s0x2e7a577826e1f807:0x40dc172d1ffcdc59!8m2!3d-7.8054574!4d110.3804145!15sChNTTUEgS290YSBZb2d5YWthcnRhkgESc2VuaW9yX2hpZ2hfc2Nob29s4AEA!16s%2Fg%2F1hm6g9l39?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K121" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -5601,25 +5476,24 @@
         </is>
       </c>
       <c r="D122" t="inlineStr"/>
-      <c r="E122" t="inlineStr"/>
+      <c r="E122" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F122" t="n">
-        <v>4.5</v>
+        <v>-7.780825</v>
       </c>
       <c r="G122" t="n">
-        <v>-7.780825</v>
-      </c>
-      <c r="H122" t="n">
         <v>110.363977</v>
       </c>
-      <c r="I122" t="b">
-        <v>0</v>
+      <c r="H122" t="b">
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Taman+Madya+Jetis+Yogyakarta/@-7.780825,110.3459526,15z/data=!4m10!1m2!2m1!1sSMA+Kota+Yogyakarta!3m6!1s0x2e7a583a2a729d15:0xef450072f030dd0b!8m2!3d-7.780825!4d110.363977!15sChNTTUEgS290YSBZb2d5YWthcnRhkgESc2VuaW9yX2hpZ2hfc2Nob29s4AEA!16s%2Fg%2F1hm44gxmh?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J122" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Taman+Madya+Jetis+Yogyakarta/@-7.780825,110.3459526,15z/data=!4m10!1m2!2m1!1sSMA+Kota+Yogyakarta!3m6!1s0x2e7a583a2a729d15:0xef450072f030dd0b!8m2!3d-7.780825!4d110.363977!15sChNTTUEgS290YSBZb2d5YWthcnRhkgESc2VuaW9yX2hpZ2hfc2Nob29s4AEA!16s%2Fg%2F1hm44gxmh?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K122" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -5642,25 +5516,24 @@
           <t>(0274) 513434</t>
         </is>
       </c>
-      <c r="E123" t="inlineStr"/>
+      <c r="E123" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F123" t="n">
-        <v>4.7</v>
+        <v>-7.781601</v>
       </c>
       <c r="G123" t="n">
-        <v>-7.781601</v>
-      </c>
-      <c r="H123" t="n">
         <v>110.376394</v>
       </c>
-      <c r="I123" t="b">
-        <v>0</v>
+      <c r="H123" t="b">
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Negeri+9+Yogyakarta/@-7.7816006,110.3583698,15z/data=!4m10!1m2!2m1!1sSMA+Kota+Yogyakarta!3m6!1s0x2e7a5834a7e9b759:0x852a67e186e0d759!8m2!3d-7.7816006!4d110.3763942!15sChNTTUEgS290YSBZb2d5YWthcnRhkgESc2VuaW9yX2hpZ2hfc2Nob29s4AEA!16s%2Fg%2F12bfg2xv9?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J123" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Negeri+9+Yogyakarta/@-7.7816006,110.3583698,15z/data=!4m10!1m2!2m1!1sSMA+Kota+Yogyakarta!3m6!1s0x2e7a5834a7e9b759:0x852a67e186e0d759!8m2!3d-7.7816006!4d110.3763942!15sChNTTUEgS290YSBZb2d5YWthcnRhkgESc2VuaW9yX2hpZ2hfc2Nob29s4AEA!16s%2Fg%2F12bfg2xv9?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K123" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -5683,25 +5556,24 @@
           <t>(0274) 374970</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr"/>
+      <c r="E124" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F124" t="n">
-        <v>4.8</v>
+        <v>-7.810798</v>
       </c>
       <c r="G124" t="n">
-        <v>-7.810798</v>
-      </c>
-      <c r="H124" t="n">
         <v>110.355701</v>
       </c>
-      <c r="I124" t="b">
-        <v>0</v>
+      <c r="H124" t="b">
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Muhammadiyah+6+Yogyakarta/@-7.8107978,110.3376764,15z/data=!4m10!1m2!2m1!1sSMA+Kota+Yogyakarta!3m6!1s0x2e7a57933eff4bed:0xa7592d7830245160!8m2!3d-7.8107978!4d110.3557008!15sChNTTUEgS290YSBZb2d5YWthcnRhkgELaGlnaF9zY2hvb2zgAQA!16s%2Fg%2F11btmrdjmt?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J124" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Muhammadiyah+6+Yogyakarta/@-7.8107978,110.3376764,15z/data=!4m10!1m2!2m1!1sSMA+Kota+Yogyakarta!3m6!1s0x2e7a57933eff4bed:0xa7592d7830245160!8m2!3d-7.8107978!4d110.3557008!15sChNTTUEgS290YSBZb2d5YWthcnRhkgELaGlnaF9zY2hvb2zgAQA!16s%2Fg%2F11btmrdjmt?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K124" t="inlineStr">
         <is>
           <t>3 minggu lalu</t>
         </is>
@@ -5728,25 +5600,24 @@
           <t>(0274) 773123</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr"/>
+      <c r="E125" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F125" t="n">
-        <v>4.5</v>
+        <v>-7.857358</v>
       </c>
       <c r="G125" t="n">
-        <v>-7.857358</v>
-      </c>
-      <c r="H125" t="n">
         <v>110.174535</v>
       </c>
-      <c r="I125" t="b">
-        <v>0</v>
+      <c r="H125" t="b">
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Negeri+1+Pengasih(SMAPTA)/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7afb10736a8ce3:0xf053419e5b30c38d!8m2!3d-7.8573577!4d110.1745352!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgESc2VuaW9yX2hpZ2hfc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU10YnpSMlRVbEJFQUXgAQD6AQQIABAc!16s%2Fg%2F1hm6jrq4b?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J125" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Negeri+1+Pengasih(SMAPTA)/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7afb10736a8ce3:0xf053419e5b30c38d!8m2!3d-7.8573577!4d110.1745352!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgESc2VuaW9yX2hpZ2hfc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU10YnpSMlRVbEJFQUXgAQD6AQQIABAc!16s%2Fg%2F1hm6jrq4b?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K125" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -5773,25 +5644,24 @@
           <t>(0274) 7723569</t>
         </is>
       </c>
-      <c r="E126" t="inlineStr"/>
+      <c r="E126" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F126" t="n">
-        <v>4.7</v>
+        <v>-7.816034</v>
       </c>
       <c r="G126" t="n">
-        <v>-7.816034</v>
-      </c>
-      <c r="H126" t="n">
         <v>110.227044</v>
       </c>
-      <c r="I126" t="b">
-        <v>0</v>
+      <c r="H126" t="b">
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Negeri+1+Sentolo/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7afa1baae99617:0xaa4e3041d3340499!8m2!3d-7.8160337!4d110.2270436!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgESc2VuaW9yX2hpZ2hfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVIxTm1SNUxUSm5SUkFC4AEA-gEECAAQHw!16s%2Fg%2F1hm6bz4m1?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J126" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Negeri+1+Sentolo/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7afa1baae99617:0xaa4e3041d3340499!8m2!3d-7.8160337!4d110.2270436!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgESc2VuaW9yX2hpZ2hfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVIxTm1SNUxUSm5SUkFC4AEA-gEECAAQHw!16s%2Fg%2F1hm6bz4m1?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K126" t="inlineStr">
         <is>
           <t>31 menit lalu</t>
         </is>
@@ -5814,25 +5684,24 @@
         </is>
       </c>
       <c r="D127" t="inlineStr"/>
-      <c r="E127" t="inlineStr"/>
+      <c r="E127" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F127" t="n">
-        <v>4.8</v>
+        <v>-7.773371</v>
       </c>
       <c r="G127" t="n">
-        <v>-7.773371</v>
-      </c>
-      <c r="H127" t="n">
         <v>110.191904</v>
       </c>
-      <c r="I127" t="b">
-        <v>0</v>
+      <c r="H127" t="b">
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Negeri+1+Girimulyo/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7af0f9c349ad63:0x878e153086e771d6!8m2!3d-7.7733711!4d110.1919042!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgESc2VuaW9yX2hpZ2hfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVIxTVZwbWIzZEJSUkFC4AEA-gEECAAQPg!16s%2Fg%2F1hm2y7qnx?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J127" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Negeri+1+Girimulyo/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7af0f9c349ad63:0x878e153086e771d6!8m2!3d-7.7733711!4d110.1919042!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgESc2VuaW9yX2hpZ2hfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVIxTVZwbWIzZEJSUkFC4AEA-gEECAAQPg!16s%2Fg%2F1hm2y7qnx?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K127" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -5859,25 +5728,24 @@
           <t>(0274) 773055</t>
         </is>
       </c>
-      <c r="E128" t="inlineStr"/>
+      <c r="E128" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F128" t="n">
-        <v>4.7</v>
+        <v>-7.89412</v>
       </c>
       <c r="G128" t="n">
-        <v>-7.89412</v>
-      </c>
-      <c r="H128" t="n">
         <v>110.146731</v>
       </c>
-      <c r="I128" t="b">
-        <v>0</v>
+      <c r="H128" t="b">
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Negeri+2+Wates/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7ae359d3ced19f:0x35c6a617f4881767!8m2!3d-7.8941203!4d110.1467311!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgESc2VuaW9yX2hpZ2hfc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJsY3psMloxWkJFQUXgAQD6AQQIABAk!16s%2Fg%2F1tgv9rh3?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J128" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Negeri+2+Wates/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7ae359d3ced19f:0x35c6a617f4881767!8m2!3d-7.8941203!4d110.1467311!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgESc2VuaW9yX2hpZ2hfc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJsY3psMloxWkJFQUXgAQD6AQQIABAk!16s%2Fg%2F1tgv9rh3?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K128" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -5904,25 +5772,24 @@
           <t>(0274) 2549774</t>
         </is>
       </c>
-      <c r="E129" t="inlineStr"/>
+      <c r="E129" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F129" t="n">
-        <v>4.7</v>
+        <v>-7.7128</v>
       </c>
       <c r="G129" t="n">
-        <v>-7.7128</v>
-      </c>
-      <c r="H129" t="n">
         <v>110.215612</v>
       </c>
-      <c r="I129" t="b">
-        <v>0</v>
+      <c r="H129" t="b">
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Negeri+1+Kalibawang/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7af3e06b7f05c5:0x198593f156ba982b!8m2!3d-7.7128001!4d110.2156119!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgESc2VuaW9yX2hpZ2hfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU4xYjFvM2N6bG5SUkFC4AEA-gEECAAQOg!16s%2Fg%2F1pzpjywr1?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J129" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Negeri+1+Kalibawang/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7af3e06b7f05c5:0x198593f156ba982b!8m2!3d-7.7128001!4d110.2156119!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgESc2VuaW9yX2hpZ2hfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU4xYjFvM2N6bG5SUkFC4AEA-gEECAAQOg!16s%2Fg%2F1pzpjywr1?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K129" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -5949,25 +5816,24 @@
           <t>(0274) 7102507</t>
         </is>
       </c>
-      <c r="E130" t="inlineStr"/>
+      <c r="E130" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F130" t="n">
-        <v>4.6</v>
+        <v>-7.929692</v>
       </c>
       <c r="G130" t="n">
-        <v>-7.929692</v>
-      </c>
-      <c r="H130" t="n">
         <v>110.231985</v>
       </c>
-      <c r="I130" t="b">
-        <v>0</v>
+      <c r="H130" t="b">
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Negeri+1+Lendah./@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7afdd44e3a8b29:0x9b17026365a8d9f8!8m2!3d-7.9296924!4d110.2319846!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgESc2VuaW9yX2hpZ2hfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5xWDJWUWJqVjNSUkFC4AEA-gEECAAQHg!16s%2Fg%2F1hm6h1_b8?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J130" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Negeri+1+Lendah./@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7afdd44e3a8b29:0x9b17026365a8d9f8!8m2!3d-7.9296924!4d110.2319846!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgESc2VuaW9yX2hpZ2hfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5xWDJWUWJqVjNSUkFC4AEA-gEECAAQHg!16s%2Fg%2F1hm6h1_b8?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K130" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -5994,25 +5860,24 @@
           <t>(0274) 773067</t>
         </is>
       </c>
-      <c r="E131" t="inlineStr"/>
+      <c r="E131" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F131" t="n">
-        <v>4.3</v>
+        <v>-7.855401</v>
       </c>
       <c r="G131" t="n">
-        <v>-7.855401</v>
-      </c>
-      <c r="H131" t="n">
         <v>110.158339</v>
       </c>
-      <c r="I131" t="b">
-        <v>0</v>
+      <c r="H131" t="b">
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Negeri+1+Wates/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7ae35400000001:0xe6ed43bc2ae65c71!8m2!3d-7.855401!4d110.158339!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgESc2VuaW9yX2hpZ2hfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJDZDBrdFpqTm5SUkFC4AEA-gEECAAQPw!16s%2Fg%2F1pz2tw1lh?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J131" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Negeri+1+Wates/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7ae35400000001:0xe6ed43bc2ae65c71!8m2!3d-7.855401!4d110.158339!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgESc2VuaW9yX2hpZ2hfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJDZDBrdFpqTm5SUkFC4AEA-gEECAAQPw!16s%2Fg%2F1pz2tw1lh?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K131" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -6039,25 +5904,24 @@
           <t>0811-2655-422</t>
         </is>
       </c>
-      <c r="E132" t="inlineStr"/>
+      <c r="E132" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F132" t="n">
-        <v>4.6</v>
+        <v>-7.879584</v>
       </c>
       <c r="G132" t="n">
-        <v>-7.879584</v>
-      </c>
-      <c r="H132" t="n">
         <v>110.072803</v>
       </c>
-      <c r="I132" t="b">
-        <v>0</v>
+      <c r="H132" t="b">
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Negeri+1+Temon/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7ae3582e3e6b0b:0x16f48c810fcc8aff!8m2!3d-7.879584!4d110.0728027!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgESc2VuaW9yX2hpZ2hfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVF4TFUxVVl6bG5SUkFC4AEA-gEECAAQPg!16s%2Fg%2F1pzq46trz?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J132" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Negeri+1+Temon/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7ae3582e3e6b0b:0x16f48c810fcc8aff!8m2!3d-7.879584!4d110.0728027!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgESc2VuaW9yX2hpZ2hfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVF4TFUxVVl6bG5SUkFC4AEA-gEECAAQPg!16s%2Fg%2F1pzq46trz?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K132" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -6084,25 +5948,24 @@
           <t>0851-0010-4022</t>
         </is>
       </c>
-      <c r="E133" t="inlineStr"/>
+      <c r="E133" t="n">
+        <v>3.8</v>
+      </c>
       <c r="F133" t="n">
-        <v>3.8</v>
+        <v>-7.934313</v>
       </c>
       <c r="G133" t="n">
-        <v>-7.934313</v>
-      </c>
-      <c r="H133" t="n">
         <v>110.201317</v>
       </c>
-      <c r="I133" t="b">
-        <v>0</v>
+      <c r="H133" t="b">
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Negeri+1+Galur/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7afdb194c072b9:0x50d3661027d001a0!8m2!3d-7.9343127!4d110.2013174!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgESc2VuaW9yX2hpZ2hfc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJQT1hWVVoxQm5FQUXgAQD6AQQIABAS!16s%2Fg%2F1hm4181lw?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J133" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Negeri+1+Galur/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7afdb194c072b9:0x50d3661027d001a0!8m2!3d-7.9343127!4d110.2013174!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgESc2VuaW9yX2hpZ2hfc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJQT1hWVVoxQm5FQUXgAQD6AQQIABAS!16s%2Fg%2F1hm4181lw?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K133" t="inlineStr">
         <is>
           <t>14 jam lalu</t>
         </is>
@@ -6125,25 +5988,24 @@
           <t>(0274) 7721351</t>
         </is>
       </c>
-      <c r="E134" t="inlineStr"/>
+      <c r="E134" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F134" t="n">
-        <v>4.4</v>
+        <v>-7.865617</v>
       </c>
       <c r="G134" t="n">
-        <v>-7.865617</v>
-      </c>
-      <c r="H134" t="n">
         <v>110.159248</v>
       </c>
-      <c r="I134" t="b">
-        <v>0</v>
+      <c r="H134" t="b">
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+MA'ARIF+WATES/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7afb3ebb159d95:0xe699ce4ca9118e4e!8m2!3d-7.8656167!4d110.1592483!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgESc2VuaW9yX2hpZ2hfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5MTUhGTVh6ZEJSUkFC4AEA-gEECAAQRQ!16s%2Fg%2F1hm3pzr45?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J134" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+MA'ARIF+WATES/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7afb3ebb159d95:0xe699ce4ca9118e4e!8m2!3d-7.8656167!4d110.1592483!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgESc2VuaW9yX2hpZ2hfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5MTUhGTVh6ZEJSUkFC4AEA-gEECAAQRQ!16s%2Fg%2F1hm3pzr45?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K134" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -6162,25 +6024,24 @@
       </c>
       <c r="C135" t="inlineStr"/>
       <c r="D135" t="inlineStr"/>
-      <c r="E135" t="inlineStr"/>
+      <c r="E135" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F135" t="n">
-        <v>4.5</v>
+        <v>-7.839058</v>
       </c>
       <c r="G135" t="n">
-        <v>-7.839058</v>
-      </c>
-      <c r="H135" t="n">
         <v>110.097474</v>
       </c>
-      <c r="I135" t="b">
-        <v>0</v>
+      <c r="H135" t="b">
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Negeri+1+Kokap/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7ae508b8c40a03:0x272070de7ba85540!8m2!3d-7.8390582!4d110.0974736!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgESc2VuaW9yX2hpZ2hfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJxYURseFN6Tm5SUkFC4AEA-gEECAAQRg!16s%2Fg%2F1hm32g0y7?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J135" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Negeri+1+Kokap/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7ae508b8c40a03:0x272070de7ba85540!8m2!3d-7.8390582!4d110.0974736!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgESc2VuaW9yX2hpZ2hfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJxYURseFN6Tm5SUkFC4AEA-gEECAAQRg!16s%2Fg%2F1hm32g0y7?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K135" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
@@ -6203,25 +6064,24 @@
           <t>(0274) 6522887</t>
         </is>
       </c>
-      <c r="E136" t="inlineStr"/>
+      <c r="E136" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F136" t="n">
-        <v>4.2</v>
+        <v>-7.757254</v>
       </c>
       <c r="G136" t="n">
-        <v>-7.757254</v>
-      </c>
-      <c r="H136" t="n">
         <v>110.210932</v>
       </c>
-      <c r="I136" t="b">
-        <v>0</v>
+      <c r="H136" t="b">
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Sanjaya+XIV+Nanggulan/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7af118b22cf9cf:0xa27f2a76af87475!8m2!3d-7.7572545!4d110.2109316!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgESc2VuaW9yX2hpZ2hfc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU14YW1OWWIxQjNFQUXgAQD6AQQIABAz!16s%2Fg%2F11c4bczg0c?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J136" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Sanjaya+XIV+Nanggulan/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7af118b22cf9cf:0xa27f2a76af87475!8m2!3d-7.7572545!4d110.2109316!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgESc2VuaW9yX2hpZ2hfc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU14YW1OWWIxQjNFQUXgAQD6AQQIABAz!16s%2Fg%2F11c4bczg0c?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K136" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -6248,25 +6108,24 @@
           <t>(0274) 2890500</t>
         </is>
       </c>
-      <c r="E137" t="inlineStr"/>
+      <c r="E137" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F137" t="n">
-        <v>4.7</v>
+        <v>-7.885991</v>
       </c>
       <c r="G137" t="n">
-        <v>-7.885991</v>
-      </c>
-      <c r="H137" t="n">
         <v>110.141458</v>
       </c>
-      <c r="I137" t="b">
-        <v>0</v>
+      <c r="H137" t="b">
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMAIT+Abu+Bakar+Boarding+School+Kulon+Progo/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7ae4adaaaaaa97:0xaad2cc324cf5d3f6!8m2!3d-7.8859906!4d110.1414584!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgESc2VuaW9yX2hpZ2hfc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJLYzAxUGRrUlJFQUXgAQD6AQQIABAe!16s%2Fg%2F11g87646bw?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J137" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMAIT+Abu+Bakar+Boarding+School+Kulon+Progo/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7ae4adaaaaaa97:0xaad2cc324cf5d3f6!8m2!3d-7.8859906!4d110.1414584!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgESc2VuaW9yX2hpZ2hfc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJLYzAxUGRrUlJFQUXgAQD6AQQIABAe!16s%2Fg%2F11g87646bw?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K137" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -6293,25 +6152,24 @@
           <t>(0274) 7104153</t>
         </is>
       </c>
-      <c r="E138" t="inlineStr"/>
+      <c r="E138" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F138" t="n">
-        <v>4.5</v>
+        <v>-7.661624</v>
       </c>
       <c r="G138" t="n">
-        <v>-7.661624</v>
-      </c>
-      <c r="H138" t="n">
         <v>110.161455</v>
       </c>
-      <c r="I138" t="b">
-        <v>0</v>
+      <c r="H138" t="b">
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Negeri+1+Samigaluh/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7af29578997e05:0xcf9b4ca355b2da98!8m2!3d-7.6616242!4d110.1614551!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgEGc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJITjA1bVN6SkJSUkFC4AEA-gEECAAQKQ!16s%2Fg%2F1hm5mmd17?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J138" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Negeri+1+Samigaluh/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7af29578997e05:0xcf9b4ca355b2da98!8m2!3d-7.6616242!4d110.1614551!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgEGc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJITjA1bVN6SkJSUkFC4AEA-gEECAAQKQ!16s%2Fg%2F1hm5mmd17?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K138" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -6334,25 +6192,24 @@
           <t>(0274) 773528</t>
         </is>
       </c>
-      <c r="E139" t="inlineStr"/>
+      <c r="E139" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F139" t="n">
-        <v>4.5</v>
+        <v>-7.858109</v>
       </c>
       <c r="G139" t="n">
-        <v>-7.858109</v>
-      </c>
-      <c r="H139" t="n">
         <v>110.160806</v>
       </c>
-      <c r="I139" t="b">
-        <v>0</v>
+      <c r="H139" t="b">
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+BOPKRI/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7afb3cd6df2467:0x2123726f9a218c8!8m2!3d-7.8581086!4d110.160806!15sCg9TTUEgS3Vsb24gUHJvZ2-SAQtoaWdoX3NjaG9vbOABAA!16s%2Fg%2F11c540_bt2?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J139" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+BOPKRI/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7afb3cd6df2467:0x2123726f9a218c8!8m2!3d-7.8581086!4d110.160806!15sCg9TTUEgS3Vsb24gUHJvZ2-SAQtoaWdoX3NjaG9vbOABAA!16s%2Fg%2F11c540_bt2?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K139" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -6371,25 +6228,24 @@
       </c>
       <c r="C140" t="inlineStr"/>
       <c r="D140" t="inlineStr"/>
-      <c r="E140" t="inlineStr"/>
+      <c r="E140" t="n">
+        <v>5</v>
+      </c>
       <c r="F140" t="n">
-        <v>5</v>
+        <v>-7.912197</v>
       </c>
       <c r="G140" t="n">
-        <v>-7.912197</v>
-      </c>
-      <c r="H140" t="n">
         <v>110.258151</v>
       </c>
-      <c r="I140" t="b">
-        <v>0</v>
+      <c r="H140" t="b">
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+IT+AL+GHIFARI+LENDAH+KULON+PROGO/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7affef27cac22f:0x95a15754a8d5e5b2!8m2!3d-7.9121975!4d110.2581509!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgELaGlnaF9zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUldhWFJ1WVc1M1JSQULgAQD6AQQIABAy!16s%2Fg%2F11ptybqzdt?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J140" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+IT+AL+GHIFARI+LENDAH+KULON+PROGO/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7affef27cac22f:0x95a15754a8d5e5b2!8m2!3d-7.9121975!4d110.2581509!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgELaGlnaF9zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUldhWFJ1WVc1M1JSQULgAQD6AQQIABAy!16s%2Fg%2F11ptybqzdt?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K140" t="inlineStr">
         <is>
           <t>4 minggu lalu</t>
         </is>
@@ -6408,25 +6264,24 @@
       </c>
       <c r="C141" t="inlineStr"/>
       <c r="D141" t="inlineStr"/>
-      <c r="E141" t="inlineStr"/>
+      <c r="E141" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F141" t="n">
-        <v>4.5</v>
+        <v>-7.868185</v>
       </c>
       <c r="G141" t="n">
-        <v>-7.868185</v>
-      </c>
-      <c r="H141" t="n">
         <v>110.150958</v>
       </c>
-      <c r="I141" t="b">
-        <v>0</v>
+      <c r="H141" t="b">
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Muhammadiyah+Wates/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7afb37e1d32a41:0x614b800a84dddcf8!8m2!3d-7.8681853!4d110.1509576!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgESc2VuaW9yX2hpZ2hfc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5oYmpWMVUxVlJFQUXgAQD6AQQIABBH!16s%2Fg%2F1hm2rm1cg?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J141" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Muhammadiyah+Wates/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7afb37e1d32a41:0x614b800a84dddcf8!8m2!3d-7.8681853!4d110.1509576!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgESc2VuaW9yX2hpZ2hfc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5oYmpWMVUxVlJFQUXgAQD6AQQIABBH!16s%2Fg%2F1hm2rm1cg?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K141" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
@@ -6449,25 +6304,24 @@
           <t>(0274) 6560331</t>
         </is>
       </c>
-      <c r="E142" t="inlineStr"/>
+      <c r="E142" t="n">
+        <v>4</v>
+      </c>
       <c r="F142" t="n">
-        <v>4</v>
+        <v>-7.857139</v>
       </c>
       <c r="G142" t="n">
-        <v>-7.857139</v>
-      </c>
-      <c r="H142" t="n">
         <v>110.158874</v>
       </c>
-      <c r="I142" t="b">
-        <v>0</v>
+      <c r="H142" t="b">
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Bopkri+Wates/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7afb2345354bc5:0x1bb8e417c4c09d83!8m2!3d-7.8571389!4d110.158874!15sCg9TTUEgS3Vsb24gUHJvZ2-SARJzZW5pb3JfaGlnaF9zY2hvb2zgAQA!16s%2Fg%2F11b6s3v2zs?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J142" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Bopkri+Wates/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7afb2345354bc5:0x1bb8e417c4c09d83!8m2!3d-7.8571389!4d110.158874!15sCg9TTUEgS3Vsb24gUHJvZ2-SARJzZW5pb3JfaGlnaF9zY2hvb2zgAQA!16s%2Fg%2F11b6s3v2zs?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K142" t="inlineStr">
         <is>
           <t>6 tahun lalu</t>
         </is>
@@ -6490,25 +6344,24 @@
           <t>(0274) 773029</t>
         </is>
       </c>
-      <c r="E143" t="inlineStr"/>
+      <c r="E143" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F143" t="n">
-        <v>4.7</v>
+        <v>-7.858181</v>
       </c>
       <c r="G143" t="n">
-        <v>-7.858181</v>
-      </c>
-      <c r="H143" t="n">
         <v>110.174364</v>
       </c>
-      <c r="I143" t="b">
-        <v>0</v>
+      <c r="H143" t="b">
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMK+Negeri+2+Pengasih/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7afb1aa426c607:0xe338787c70338a16!8m2!3d-7.8581809!4d110.1743638!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgEadm9jYXRpb25hbF90cmFpbmluZ19zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTjFOMGxYZUV4bkVBReABAPoBBAgAECI!16s%2Fg%2F1td5byhs?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J143" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMK+Negeri+2+Pengasih/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7afb1aa426c607:0xe338787c70338a16!8m2!3d-7.8581809!4d110.1743638!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgEadm9jYXRpb25hbF90cmFpbmluZ19zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTjFOMGxYZUV4bkVBReABAPoBBAgAECI!16s%2Fg%2F1td5byhs?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K143" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -6531,25 +6384,24 @@
           <t>(0274) 7103191</t>
         </is>
       </c>
-      <c r="E144" t="inlineStr"/>
+      <c r="E144" t="n">
+        <v>3.4</v>
+      </c>
       <c r="F144" t="n">
-        <v>3.4</v>
+        <v>-7.94015</v>
       </c>
       <c r="G144" t="n">
-        <v>-7.94015</v>
-      </c>
-      <c r="H144" t="n">
         <v>110.234274</v>
       </c>
-      <c r="I144" t="b">
-        <v>0</v>
+      <c r="H144" t="b">
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Muhammadiyah+Al+Manar+Galur/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7afddecb213d21:0xb9c85e231159283e!8m2!3d-7.94015!4d110.2342743!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgELaGlnaF9zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTmtjMkZ5YzFabkVBReABAPoBBAgAEBs!16s%2Fg%2F1pzq8cchm?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J144" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Muhammadiyah+Al+Manar+Galur/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7afddecb213d21:0xb9c85e231159283e!8m2!3d-7.94015!4d110.2342743!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgELaGlnaF9zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTmtjMkZ5YzFabkVBReABAPoBBAgAEBs!16s%2Fg%2F1pzq8cchm?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K144" t="inlineStr">
         <is>
           <t>7 bulan lalu</t>
         </is>
@@ -6576,25 +6428,24 @@
           <t>(0274) 773081</t>
         </is>
       </c>
-      <c r="E145" t="inlineStr"/>
+      <c r="E145" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F145" t="n">
-        <v>4.5</v>
+        <v>-7.847827</v>
       </c>
       <c r="G145" t="n">
-        <v>-7.847827</v>
-      </c>
-      <c r="H145" t="n">
         <v>110.168028</v>
       </c>
-      <c r="I145" t="b">
-        <v>0</v>
+      <c r="H145" t="b">
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMK+Negeri+1+Pengasih/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7afc5342a1d6f7:0x6760b0382938aa8f!8m2!3d-7.8478266!4d110.1680276!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgEadm9jYXRpb25hbF90cmFpbmluZ19zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTnROSEp1UlMxQlJSQULgAQD6AQQIABAq!16s%2Fg%2F1hm4zq43r?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J145" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMK+Negeri+1+Pengasih/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7afc5342a1d6f7:0x6760b0382938aa8f!8m2!3d-7.8478266!4d110.1680276!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgEadm9jYXRpb25hbF90cmFpbmluZ19zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTnROSEp1UlMxQlJSQULgAQD6AQQIABAq!16s%2Fg%2F1hm4zq43r?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K145" t="inlineStr">
         <is>
           <t>2 hari lalu</t>
         </is>
@@ -6617,25 +6468,24 @@
           <t>0811-2649-275</t>
         </is>
       </c>
-      <c r="E146" t="inlineStr"/>
+      <c r="E146" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F146" t="n">
-        <v>4.7</v>
+        <v>-7.90241</v>
       </c>
       <c r="G146" t="n">
-        <v>-7.90241</v>
-      </c>
-      <c r="H146" t="n">
         <v>110.177008</v>
       </c>
-      <c r="I146" t="b">
-        <v>0</v>
+      <c r="H146" t="b">
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMK+Negeri+1+Panjatan/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7afc9bac7ccb7d:0x526077b3431eb38b!8m2!3d-7.90241!4d110.1770079!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgEadm9jYXRpb25hbF90cmFpbmluZ19zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUkhNemgyTVROQlJSQULgAQD6AQQIABA1!16s%2Fg%2F1pzsyx309?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J146" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMK+Negeri+1+Panjatan/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7afc9bac7ccb7d:0x526077b3431eb38b!8m2!3d-7.90241!4d110.1770079!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgEadm9jYXRpb25hbF90cmFpbmluZ19zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUkhNemgyTVROQlJSQULgAQD6AQQIABA1!16s%2Fg%2F1pzsyx309?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K146" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -6662,25 +6512,24 @@
           <t>(0274) 773565</t>
         </is>
       </c>
-      <c r="E147" t="inlineStr"/>
+      <c r="E147" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F147" t="n">
-        <v>4.7</v>
+        <v>-7.864193</v>
       </c>
       <c r="G147" t="n">
-        <v>-7.864193</v>
-      </c>
-      <c r="H147" t="n">
         <v>110.158351</v>
       </c>
-      <c r="I147" t="b">
-        <v>0</v>
+      <c r="H147" t="b">
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMK+Ma'arif+1+Wates/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7afb394ad01d69:0x65bc580f4e1a12b6!8m2!3d-7.8641934!4d110.1583512!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgEadm9jYXRpb25hbF90cmFpbmluZ19zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUnNYM1l5VjBGbkVBReABAPoBBAgUECo!16s%2Fg%2F1td35nrm?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J147" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMK+Ma'arif+1+Wates/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7afb394ad01d69:0x65bc580f4e1a12b6!8m2!3d-7.8641934!4d110.1583512!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgEadm9jYXRpb25hbF90cmFpbmluZ19zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUnNYM1l5VjBGbkVBReABAPoBBAgUECo!16s%2Fg%2F1td35nrm?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K147" t="inlineStr">
         <is>
           <t>3 minggu lalu</t>
         </is>
@@ -6707,25 +6556,24 @@
           <t>(0274) 773344</t>
         </is>
       </c>
-      <c r="E148" t="inlineStr"/>
+      <c r="E148" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F148" t="n">
-        <v>4.3</v>
+        <v>-7.864979</v>
       </c>
       <c r="G148" t="n">
-        <v>-7.864979</v>
-      </c>
-      <c r="H148" t="n">
         <v>110.159678</v>
       </c>
-      <c r="I148" t="b">
-        <v>0</v>
+      <c r="H148" t="b">
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMK+Muhammadiyah+1+Wates/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7afb3ee855e49d:0x15c51174b30adbe0!8m2!3d-7.8649787!4d110.1596781!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgEadm9jYXRpb25hbF90cmFpbmluZ19zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTTJOelpxVEhSM1JSQULgAQD6AQQIUBA5!16s%2Fg%2F1hm3wygmm?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J148" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMK+Muhammadiyah+1+Wates/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7afb3ee855e49d:0x15c51174b30adbe0!8m2!3d-7.8649787!4d110.1596781!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgEadm9jYXRpb25hbF90cmFpbmluZ19zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTTJOelpxVEhSM1JSQULgAQD6AQQIUBA5!16s%2Fg%2F1hm3wygmm?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K148" t="inlineStr">
         <is>
           <t>8 bulan lalu</t>
         </is>
@@ -6752,25 +6600,24 @@
           <t>(0274) 7402258</t>
         </is>
       </c>
-      <c r="E149" t="inlineStr"/>
+      <c r="E149" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F149" t="n">
-        <v>4.4</v>
+        <v>-7.675601</v>
       </c>
       <c r="G149" t="n">
-        <v>-7.675601</v>
-      </c>
-      <c r="H149" t="n">
         <v>110.262065</v>
       </c>
-      <c r="I149" t="b">
-        <v>0</v>
+      <c r="H149" t="b">
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/MAN+3+Kulon+Progo/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7af47ad2080005:0x2d13ad5abff12edc!8m2!3d-7.6756007!4d110.262065!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgESc2VuaW9yX2hpZ2hfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJxTW05UFlqbG5SUkFC4AEA-gEFCK8BEEc!16s%2Fg%2F11bc7mhrjw?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J149" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/MAN+3+Kulon+Progo/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7af47ad2080005:0x2d13ad5abff12edc!8m2!3d-7.6756007!4d110.262065!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgESc2VuaW9yX2hpZ2hfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJxTW05UFlqbG5SUkFC4AEA-gEFCK8BEEc!16s%2Fg%2F11bc7mhrjw?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K149" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -6798,22 +6645,21 @@
         </is>
       </c>
       <c r="E150" t="inlineStr"/>
-      <c r="F150" t="inlineStr"/>
+      <c r="F150" t="n">
+        <v>-7.806324</v>
+      </c>
       <c r="G150" t="n">
-        <v>-7.806324</v>
-      </c>
-      <c r="H150" t="n">
         <v>110.22731</v>
       </c>
-      <c r="I150" t="b">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr">
+      <c r="H150" t="b">
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SMA+SiBOS+-+Sentolo+Property+Boarding+School/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7afb0e12abea03:0xed25c7edfb3817ed!8m2!3d-7.8063237!4d110.22731!15sCg9TTUEgS3Vsb24gUHJvZ2-SARBlZHVjYXRpb25fY2VudGVy4AEA!16s%2Fg%2F11y9y8hcrb?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -6836,25 +6682,24 @@
           <t>0859-6235-4929</t>
         </is>
       </c>
-      <c r="E151" t="inlineStr"/>
+      <c r="E151" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F151" t="n">
-        <v>4.4</v>
+        <v>-7.882674</v>
       </c>
       <c r="G151" t="n">
-        <v>-7.882674</v>
-      </c>
-      <c r="H151" t="n">
         <v>110.04672</v>
       </c>
-      <c r="I151" t="b">
-        <v>0</v>
+      <c r="H151" t="b">
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMK+Ma%E2%80%99arif+2+Temon/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7ae41d6fc793a9:0x541b19cfaa85b029!8m2!3d-7.8826744!4d110.0467198!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgEadm9jYXRpb25hbF90cmFpbmluZ19zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTTFjSEkzY2kxblJSQULgAQD6AQQIABBB!16s%2Fg%2F1pzrbn368?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J151" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMK+Ma%E2%80%99arif+2+Temon/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7ae41d6fc793a9:0x541b19cfaa85b029!8m2!3d-7.8826744!4d110.0467198!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgEadm9jYXRpb25hbF90cmFpbmluZ19zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTTFjSEkzY2kxblJSQULgAQD6AQQIABBB!16s%2Fg%2F1pzrbn368?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K151" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -6881,25 +6726,24 @@
           <t>(0274) 773301</t>
         </is>
       </c>
-      <c r="E152" t="inlineStr"/>
+      <c r="E152" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F152" t="n">
-        <v>4.8</v>
+        <v>-7.865698</v>
       </c>
       <c r="G152" t="n">
-        <v>-7.865698</v>
-      </c>
-      <c r="H152" t="n">
         <v>110.154402</v>
       </c>
-      <c r="I152" t="b">
-        <v>0</v>
+      <c r="H152" t="b">
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/MAN+2+KULON+PROGO+(Gedung+Pembelajaran)/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7afb384d4ce7ad:0x885052c82948f444!8m2!3d-7.8656979!4d110.1544023!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgESc2VuaW9yX2hpZ2hfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5xZFhacVlWOW5SUkFC4AEA-gEFCLMDEDY!16s%2Fg%2F1hm4d7yd2?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J152" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/MAN+2+KULON+PROGO+(Gedung+Pembelajaran)/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7afb384d4ce7ad:0x885052c82948f444!8m2!3d-7.8656979!4d110.1544023!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgESc2VuaW9yX2hpZ2hfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5xZFhacVlWOW5SUkFC4AEA-gEFCLMDEDY!16s%2Fg%2F1hm4d7yd2?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K152" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -6922,25 +6766,24 @@
           <t>(0274) 773236</t>
         </is>
       </c>
-      <c r="E153" t="inlineStr"/>
+      <c r="E153" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F153" t="n">
-        <v>4.2</v>
+        <v>-7.863575</v>
       </c>
       <c r="G153" t="n">
-        <v>-7.863575</v>
-      </c>
-      <c r="H153" t="n">
         <v>110.159062</v>
       </c>
-      <c r="I153" t="b">
-        <v>0</v>
+      <c r="H153" t="b">
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMK+Ma'arif+3+Wates/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7afb3c2df4622f:0x5be3730096a56455!8m2!3d-7.8635751!4d110.1590622!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgEadm9jYXRpb25hbF90cmFpbmluZ19zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUkJlR1JmUjE5QlJSQULgAQD6AQUIoQEQPw!16s%2Fg%2F11c4kqx6lv?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J153" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMK+Ma'arif+3+Wates/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7afb3c2df4622f:0x5be3730096a56455!8m2!3d-7.8635751!4d110.1590622!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgEadm9jYXRpb25hbF90cmFpbmluZ19zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUkJlR1JmUjE5QlJSQULgAQD6AQUIoQEQPw!16s%2Fg%2F11c4kqx6lv?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K153" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -6959,25 +6802,24 @@
       </c>
       <c r="C154" t="inlineStr"/>
       <c r="D154" t="inlineStr"/>
-      <c r="E154" t="inlineStr"/>
+      <c r="E154" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F154" t="n">
-        <v>4.5</v>
+        <v>-7.761615</v>
       </c>
       <c r="G154" t="n">
-        <v>-7.761615</v>
-      </c>
-      <c r="H154" t="n">
         <v>110.210466</v>
       </c>
-      <c r="I154" t="b">
-        <v>0</v>
+      <c r="H154" t="b">
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+1+Nanggulan/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7af11fe9dc434d:0xf21674779ec91136!8m2!3d-7.7616149!4d110.210466!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgENbWlkZGxlX3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSNU5IRjFZa1YzRUFF4AEA-gEECCgQPw!16s%2Fg%2F1hm6n33m8?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J154" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+1+Nanggulan/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7af11fe9dc434d:0xf21674779ec91136!8m2!3d-7.7616149!4d110.210466!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgENbWlkZGxlX3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSNU5IRjFZa1YzRUFF4AEA-gEECCgQPw!16s%2Fg%2F1hm6n33m8?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K154" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -7004,25 +6846,24 @@
           <t>(0274) 773646</t>
         </is>
       </c>
-      <c r="E155" t="inlineStr"/>
+      <c r="E155" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F155" t="n">
-        <v>4.6</v>
+        <v>-7.893009</v>
       </c>
       <c r="G155" t="n">
-        <v>-7.893009</v>
-      </c>
-      <c r="H155" t="n">
         <v>110.152691</v>
       </c>
-      <c r="I155" t="b">
-        <v>0</v>
+      <c r="H155" t="b">
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMK+Muhammadiyah+2+Wates+(UNIT+1)/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7afca626d83abf:0x73020c463a67f753!8m2!3d-7.8930087!4d110.1526906!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgEadm9jYXRpb25hbF90cmFpbmluZ19zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTlBjWFpRUkRsblJSQULgAQD6AQQIABA0!16s%2Fg%2F11fzsthw1z?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J155" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMK+Muhammadiyah+2+Wates+(UNIT+1)/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7afca626d83abf:0x73020c463a67f753!8m2!3d-7.8930087!4d110.1526906!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgEadm9jYXRpb25hbF90cmFpbmluZ19zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTlBjWFpRUkRsblJSQULgAQD6AQQIABA0!16s%2Fg%2F11fzsthw1z?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K155" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -7049,25 +6890,24 @@
           <t>0813-2622-3499</t>
         </is>
       </c>
-      <c r="E156" t="inlineStr"/>
+      <c r="E156" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F156" t="n">
-        <v>4.3</v>
+        <v>-7.894307</v>
       </c>
       <c r="G156" t="n">
-        <v>-7.894307</v>
-      </c>
-      <c r="H156" t="n">
         <v>110.089712</v>
       </c>
-      <c r="I156" t="b">
-        <v>0</v>
+      <c r="H156" t="b">
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMKN+1+Temon/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7ae395e51b55e7:0x2bb9b96d5dfd4d64!8m2!3d-7.8943068!4d110.0897124!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgEadm9jYXRpb25hbF90cmFpbmluZ19zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUXllVjloWW5KM1JSQULgAQD6AQQIABAr!16s%2Fg%2F11dx8_m_p_?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J156" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMKN+1+Temon/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7ae395e51b55e7:0x2bb9b96d5dfd4d64!8m2!3d-7.8943068!4d110.0897124!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgEadm9jYXRpb25hbF90cmFpbmluZ19zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUXllVjloWW5KM1JSQULgAQD6AQQIABAr!16s%2Fg%2F11dx8_m_p_?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K156" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -7094,25 +6934,24 @@
           <t>(0274) 775320</t>
         </is>
       </c>
-      <c r="E157" t="inlineStr"/>
+      <c r="E157" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F157" t="n">
-        <v>4.5</v>
+        <v>-7.868427</v>
       </c>
       <c r="G157" t="n">
-        <v>-7.868427</v>
-      </c>
-      <c r="H157" t="n">
         <v>110.151045</v>
       </c>
-      <c r="I157" t="b">
-        <v>0</v>
+      <c r="H157" t="b">
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMK+Muhammadiyah+3+Wates/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7afb37cc2816ed:0xe52b415d697176d6!8m2!3d-7.8684271!4d110.1510452!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgEadm9jYXRpb25hbF90cmFpbmluZ19zY2hvb2zgAQA!16s%2Fg%2F11b6nkrqjf?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J157" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMK+Muhammadiyah+3+Wates/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7afb37cc2816ed:0xe52b415d697176d6!8m2!3d-7.8684271!4d110.1510452!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgEadm9jYXRpb25hbF90cmFpbmluZ19zY2hvb2zgAQA!16s%2Fg%2F11b6nkrqjf?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K157" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
